--- a/dLiveChannelListTesting.xlsx
+++ b/dLiveChannelListTesting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="126">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -156,18 +156,15 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">KickOut</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-inf</t>
-  </si>
-  <si>
     <t xml:space="preserve">SnTop</t>
   </si>
   <si>
@@ -198,19 +195,16 @@
     <t xml:space="preserve">OH R</t>
   </si>
   <si>
+    <t xml:space="preserve">Cajon</t>
+  </si>
+  <si>
     <t xml:space="preserve">empty</t>
   </si>
   <si>
     <t xml:space="preserve">black</t>
   </si>
   <si>
-    <t xml:space="preserve">Cajon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoomL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoomR</t>
+    <t xml:space="preserve">emtpy</t>
   </si>
   <si>
     <t xml:space="preserve">BassDI</t>
@@ -706,8 +700,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="P14:P129 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -866,10 +860,10 @@
         <v>43</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>20</v>
@@ -881,10 +875,10 @@
         <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
@@ -899,19 +893,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>20</v>
@@ -920,13 +914,13 @@
         <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
@@ -941,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>42</v>
@@ -953,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>20</v>
@@ -965,10 +959,10 @@
         <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK4" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
@@ -983,19 +977,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>-5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>20</v>
@@ -1004,13 +998,13 @@
         <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK5" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
@@ -1025,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>42</v>
@@ -1034,10 +1028,10 @@
         <v>43</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>20</v>
@@ -1049,10 +1043,10 @@
         <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
@@ -1067,19 +1061,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>-15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>20</v>
@@ -1088,13 +1082,13 @@
         <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
@@ -1109,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
@@ -1118,10 +1112,10 @@
         <v>43</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>20</v>
@@ -1133,10 +1127,10 @@
         <v>43</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
@@ -1151,19 +1145,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>20</v>
@@ -1172,13 +1166,13 @@
         <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
@@ -1193,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>42</v>
@@ -1201,11 +1195,11 @@
       <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>47</v>
+      <c r="E10" s="7" t="n">
+        <v>-30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>20</v>
@@ -1217,10 +1211,10 @@
         <v>43</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,19 +1222,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>20</v>
@@ -1249,13 +1243,13 @@
         <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>42</v>
@@ -1271,11 +1265,11 @@
       <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>47</v>
+      <c r="E12" s="7" t="n">
+        <v>-40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>20</v>
@@ -1287,10 +1281,10 @@
         <v>43</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,19 +1292,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>20</v>
@@ -1319,13 +1313,13 @@
         <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,19 +1327,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>47</v>
+      <c r="E14" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>20</v>
@@ -1356,28 +1350,31 @@
       <c r="J14" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="M14" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AK14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>60</v>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>20</v>
@@ -1386,13 +1383,10 @@
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,19 +1394,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>20</v>
@@ -1424,7 +1418,7 @@
         <v>43</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,19 +1426,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>20</v>
@@ -1453,10 +1447,10 @@
         <v>43</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,19 +1458,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>20</v>
@@ -1488,10 +1482,10 @@
         <v>43</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,19 +1493,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>20</v>
@@ -1520,13 +1514,13 @@
         <v>43</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,19 +1528,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>20</v>
@@ -1558,10 +1552,10 @@
         <v>43</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,19 +1563,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>20</v>
@@ -1590,13 +1584,13 @@
         <v>43</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,19 +1598,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>20</v>
@@ -1628,10 +1622,10 @@
         <v>43</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,19 +1633,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>20</v>
@@ -1660,13 +1654,13 @@
         <v>43</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,19 +1668,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>47</v>
+      <c r="E24" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>20</v>
@@ -1698,10 +1692,10 @@
         <v>43</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,19 +1703,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>20</v>
@@ -1730,13 +1724,13 @@
         <v>43</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,19 +1738,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>47</v>
+      <c r="E26" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>20</v>
@@ -1768,10 +1762,10 @@
         <v>43</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,19 +1773,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>20</v>
@@ -1800,13 +1794,13 @@
         <v>43</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,19 +1808,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>47</v>
+      <c r="E28" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>20</v>
@@ -1838,10 +1832,10 @@
         <v>43</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,19 +1843,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>20</v>
@@ -1870,13 +1864,13 @@
         <v>43</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,19 +1878,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>20</v>
@@ -1908,10 +1902,10 @@
         <v>43</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,19 +1913,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>20</v>
@@ -1940,13 +1934,13 @@
         <v>43</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,19 +1948,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>20</v>
@@ -1978,10 +1972,10 @@
         <v>43</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,19 +1983,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>20</v>
@@ -2010,13 +2004,13 @@
         <v>43</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,19 +2018,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>20</v>
@@ -2048,10 +2042,10 @@
         <v>43</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,19 +2053,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>20</v>
@@ -2080,13 +2074,13 @@
         <v>43</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,19 +2088,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>20</v>
@@ -2118,10 +2112,10 @@
         <v>43</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,19 +2123,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>20</v>
@@ -2150,13 +2144,13 @@
         <v>43</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,7 +2158,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>59</v>
@@ -2172,11 +2166,11 @@
       <c r="D38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>47</v>
+      <c r="E38" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>20</v>
@@ -2188,10 +2182,10 @@
         <v>43</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,19 +2193,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>20</v>
@@ -2220,13 +2214,13 @@
         <v>43</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,7 +2228,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>59</v>
@@ -2242,11 +2236,11 @@
       <c r="D40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>47</v>
+      <c r="E40" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>20</v>
@@ -2258,10 +2252,10 @@
         <v>43</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,19 +2263,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>20</v>
@@ -2290,13 +2284,13 @@
         <v>43</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,19 +2298,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>47</v>
+      <c r="E42" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>20</v>
@@ -2328,10 +2322,10 @@
         <v>43</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,19 +2333,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E43" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>20</v>
@@ -2360,13 +2354,13 @@
         <v>43</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,19 +2368,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E44" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>20</v>
@@ -2398,10 +2392,10 @@
         <v>43</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,19 +2403,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>20</v>
@@ -2430,13 +2424,13 @@
         <v>43</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,19 +2438,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>20</v>
@@ -2468,10 +2462,10 @@
         <v>43</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,19 +2473,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>20</v>
@@ -2500,13 +2494,13 @@
         <v>43</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL47" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,19 +2508,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E48" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>20</v>
@@ -2538,10 +2532,10 @@
         <v>43</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL48" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,19 +2543,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>20</v>
@@ -2570,13 +2564,13 @@
         <v>43</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,10 +2587,10 @@
         <v>43</v>
       </c>
       <c r="E50" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>20</v>
@@ -2619,13 +2613,13 @@
         <v>59</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E51" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>20</v>
@@ -2634,7 +2628,7 @@
         <v>43</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,11 +2644,11 @@
       <c r="D52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>47</v>
+      <c r="E52" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>20</v>
@@ -2677,13 +2671,13 @@
         <v>59</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E53" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>20</v>
@@ -2692,7 +2686,7 @@
         <v>43</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,11 +2702,11 @@
       <c r="D54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>47</v>
+      <c r="E54" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>20</v>
@@ -2735,13 +2729,13 @@
         <v>59</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E55" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>20</v>
@@ -2750,7 +2744,7 @@
         <v>43</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,11 +2760,11 @@
       <c r="D56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>47</v>
+      <c r="E56" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>20</v>
@@ -2793,13 +2787,13 @@
         <v>59</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E57" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>20</v>
@@ -2808,7 +2802,7 @@
         <v>43</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,10 +2819,10 @@
         <v>43</v>
       </c>
       <c r="E58" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>20</v>
@@ -2851,13 +2845,13 @@
         <v>59</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E59" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>20</v>
@@ -2866,7 +2860,7 @@
         <v>43</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,10 +2877,10 @@
         <v>43</v>
       </c>
       <c r="E60" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>20</v>
@@ -2909,13 +2903,13 @@
         <v>59</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E61" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>20</v>
@@ -2924,7 +2918,7 @@
         <v>43</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,10 +2935,10 @@
         <v>43</v>
       </c>
       <c r="E62" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>20</v>
@@ -2967,13 +2961,13 @@
         <v>59</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E63" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>20</v>
@@ -2982,7 +2976,7 @@
         <v>43</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,10 +2993,10 @@
         <v>43</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>20</v>
@@ -3025,13 +3019,13 @@
         <v>59</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E65" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>20</v>
@@ -3040,7 +3034,7 @@
         <v>43</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3056,11 +3050,11 @@
       <c r="D66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>47</v>
+      <c r="E66" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>20</v>
@@ -3083,13 +3077,13 @@
         <v>59</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E67" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>20</v>
@@ -3098,7 +3092,7 @@
         <v>43</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,11 +3108,11 @@
       <c r="D68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>47</v>
+      <c r="E68" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>20</v>
@@ -3141,13 +3135,13 @@
         <v>59</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E69" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>20</v>
@@ -3156,7 +3150,7 @@
         <v>43</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,11 +3166,11 @@
       <c r="D70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>47</v>
+      <c r="E70" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>20</v>
@@ -3199,13 +3193,13 @@
         <v>59</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E71" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>20</v>
@@ -3214,7 +3208,7 @@
         <v>43</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,10 +3225,10 @@
         <v>43</v>
       </c>
       <c r="E72" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>20</v>
@@ -3257,13 +3251,13 @@
         <v>59</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E73" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>20</v>
@@ -3272,7 +3266,7 @@
         <v>43</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,10 +3283,10 @@
         <v>43</v>
       </c>
       <c r="E74" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>20</v>
@@ -3315,13 +3309,13 @@
         <v>59</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E75" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>20</v>
@@ -3330,7 +3324,7 @@
         <v>43</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,10 +3341,10 @@
         <v>43</v>
       </c>
       <c r="E76" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>20</v>
@@ -3373,13 +3367,13 @@
         <v>59</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E77" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>20</v>
@@ -3388,7 +3382,7 @@
         <v>43</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,10 +3399,10 @@
         <v>43</v>
       </c>
       <c r="E78" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>20</v>
@@ -3431,13 +3425,13 @@
         <v>59</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E79" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>20</v>
@@ -3446,7 +3440,7 @@
         <v>43</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,11 +3456,11 @@
       <c r="D80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="7" t="s">
-        <v>47</v>
+      <c r="E80" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>20</v>
@@ -3489,13 +3483,13 @@
         <v>59</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E81" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>20</v>
@@ -3504,7 +3498,7 @@
         <v>43</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,11 +3514,11 @@
       <c r="D82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>47</v>
+      <c r="E82" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>20</v>
@@ -3547,13 +3541,13 @@
         <v>59</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E83" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>20</v>
@@ -3562,7 +3556,7 @@
         <v>43</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3578,11 +3572,11 @@
       <c r="D84" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>47</v>
+      <c r="E84" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>20</v>
@@ -3605,13 +3599,13 @@
         <v>59</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E85" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>20</v>
@@ -3620,7 +3614,7 @@
         <v>43</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3637,10 +3631,10 @@
         <v>43</v>
       </c>
       <c r="E86" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>20</v>
@@ -3663,13 +3657,13 @@
         <v>59</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E87" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>20</v>
@@ -3678,7 +3672,7 @@
         <v>43</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,10 +3689,10 @@
         <v>43</v>
       </c>
       <c r="E88" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>20</v>
@@ -3721,13 +3715,13 @@
         <v>59</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E89" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>20</v>
@@ -3736,7 +3730,7 @@
         <v>43</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,10 +3747,10 @@
         <v>43</v>
       </c>
       <c r="E90" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>20</v>
@@ -3779,13 +3773,13 @@
         <v>59</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E91" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>20</v>
@@ -3794,7 +3788,7 @@
         <v>43</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3811,10 +3805,10 @@
         <v>43</v>
       </c>
       <c r="E92" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>20</v>
@@ -3837,13 +3831,13 @@
         <v>59</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E93" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>20</v>
@@ -3852,7 +3846,7 @@
         <v>43</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,11 +3862,11 @@
       <c r="D94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E94" s="7" t="s">
-        <v>47</v>
+      <c r="E94" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>20</v>
@@ -3895,13 +3889,13 @@
         <v>59</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E95" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>20</v>
@@ -3910,7 +3904,7 @@
         <v>43</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,11 +3920,11 @@
       <c r="D96" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>47</v>
+      <c r="E96" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>20</v>
@@ -3953,13 +3947,13 @@
         <v>59</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E97" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>20</v>
@@ -3968,7 +3962,7 @@
         <v>43</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,11 +3978,11 @@
       <c r="D98" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>47</v>
+      <c r="E98" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>20</v>
@@ -4011,13 +4005,13 @@
         <v>59</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E99" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>20</v>
@@ -4026,7 +4020,7 @@
         <v>43</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4042,11 +4036,11 @@
       <c r="D100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>47</v>
+      <c r="E100" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>20</v>
@@ -4069,13 +4063,13 @@
         <v>59</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E101" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>20</v>
@@ -4084,7 +4078,7 @@
         <v>43</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,11 +4094,11 @@
       <c r="D102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E102" s="7" t="s">
-        <v>47</v>
+      <c r="E102" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>20</v>
@@ -4127,13 +4121,13 @@
         <v>59</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E103" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>20</v>
@@ -4142,7 +4136,7 @@
         <v>43</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,11 +4152,11 @@
       <c r="D104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>47</v>
+      <c r="E104" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>20</v>
@@ -4185,13 +4179,13 @@
         <v>59</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E105" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>20</v>
@@ -4200,7 +4194,7 @@
         <v>43</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,11 +4210,11 @@
       <c r="D106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E106" s="7" t="s">
-        <v>47</v>
+      <c r="E106" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>20</v>
@@ -4243,13 +4237,13 @@
         <v>59</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E107" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>20</v>
@@ -4258,7 +4252,7 @@
         <v>43</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,11 +4268,11 @@
       <c r="D108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E108" s="7" t="s">
-        <v>47</v>
+      <c r="E108" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>20</v>
@@ -4301,13 +4295,13 @@
         <v>59</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E109" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>20</v>
@@ -4316,7 +4310,7 @@
         <v>43</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,11 +4326,11 @@
       <c r="D110" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E110" s="7" t="s">
-        <v>47</v>
+      <c r="E110" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>20</v>
@@ -4359,13 +4353,13 @@
         <v>59</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E111" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G111" s="2" t="n">
         <v>20</v>
@@ -4374,7 +4368,7 @@
         <v>43</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,11 +4384,11 @@
       <c r="D112" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="7" t="s">
-        <v>47</v>
+      <c r="E112" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>20</v>
@@ -4417,13 +4411,13 @@
         <v>59</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E113" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>20</v>
@@ -4432,7 +4426,7 @@
         <v>43</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,11 +4442,11 @@
       <c r="D114" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E114" s="7" t="s">
-        <v>47</v>
+      <c r="E114" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>20</v>
@@ -4475,13 +4469,13 @@
         <v>59</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E115" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>20</v>
@@ -4490,7 +4484,7 @@
         <v>43</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,11 +4500,11 @@
       <c r="D116" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E116" s="7" t="s">
-        <v>47</v>
+      <c r="E116" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>20</v>
@@ -4533,13 +4527,13 @@
         <v>59</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E117" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>20</v>
@@ -4548,7 +4542,7 @@
         <v>43</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4564,11 +4558,11 @@
       <c r="D118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>47</v>
+      <c r="E118" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>20</v>
@@ -4591,13 +4585,13 @@
         <v>59</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E119" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>20</v>
@@ -4606,7 +4600,7 @@
         <v>43</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,11 +4616,11 @@
       <c r="D120" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>47</v>
+      <c r="E120" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>20</v>
@@ -4649,13 +4643,13 @@
         <v>59</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E121" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>20</v>
@@ -4664,7 +4658,7 @@
         <v>43</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,11 +4674,11 @@
       <c r="D122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E122" s="7" t="s">
-        <v>47</v>
+      <c r="E122" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>20</v>
@@ -4707,13 +4701,13 @@
         <v>59</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E123" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>20</v>
@@ -4722,7 +4716,7 @@
         <v>43</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,11 +4732,11 @@
       <c r="D124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E124" s="7" t="s">
-        <v>47</v>
+      <c r="E124" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>20</v>
@@ -4765,13 +4759,13 @@
         <v>59</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E125" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>20</v>
@@ -4780,7 +4774,7 @@
         <v>43</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4796,11 +4790,11 @@
       <c r="D126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E126" s="7" t="s">
-        <v>47</v>
+      <c r="E126" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>20</v>
@@ -4823,13 +4817,13 @@
         <v>59</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E127" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>20</v>
@@ -4838,7 +4832,7 @@
         <v>43</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,11 +4848,11 @@
       <c r="D128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E128" s="7" t="s">
-        <v>47</v>
+      <c r="E128" s="7" t="n">
+        <v>-99</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>20</v>
@@ -4881,13 +4875,13 @@
         <v>59</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E129" s="7" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>20</v>
@@ -4896,7 +4890,7 @@
         <v>43</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,18 +4925,22 @@
       <formula>"blue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C129" type="list">
       <formula1>"blue,red,yellow,green,light blue,white,purple,black"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E131" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E130:E131" type="list">
       <formula1>"+10,+5,0,-5,-10,-15,-20,-25,-30,-35,-40,-45,-inf"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G129" type="decimal">
       <formula1>20</formula1>
       <formula2>2000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E129" type="list">
+      <formula1>"+10,+5,0,-5,-10,-15,-20,-25,-30,-35,-40,-45,-99"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4962,8 +4960,8 @@
   </sheetPr>
   <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14:P129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4980,49 +4978,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5033,37 +5031,37 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="7" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,40 +5069,40 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="7" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,37 +5113,37 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,40 +5151,40 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,37 +5195,37 @@
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="7" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,40 +5233,40 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,37 +5277,37 @@
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,40 +5315,40 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5361,37 +5359,37 @@
         <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5399,40 +5397,40 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I11" s="7" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,81 +5441,81 @@
         <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="7" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,7 +5526,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>5</v>
@@ -5537,7 +5535,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" s="7" t="n">
         <v>5</v>
@@ -5546,7 +5544,7 @@
         <v>43</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7" t="n">
         <v>5</v>
@@ -5555,7 +5553,7 @@
         <v>43</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="n">
         <v>5</v>
@@ -5566,37 +5564,37 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I15" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M15" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="7" t="n">
         <v>5</v>
@@ -5610,7 +5608,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>5</v>
@@ -5619,7 +5617,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7" t="n">
         <v>5</v>
@@ -5628,7 +5626,7 @@
         <v>43</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7" t="n">
         <v>5</v>
@@ -5637,7 +5635,7 @@
         <v>43</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="7" t="n">
         <v>5</v>
@@ -5648,37 +5646,37 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M17" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="7" t="n">
         <v>5</v>
@@ -5692,7 +5690,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>5</v>
@@ -5701,7 +5699,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" s="7" t="n">
         <v>5</v>
@@ -5710,7 +5708,7 @@
         <v>43</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M18" s="7" t="n">
         <v>5</v>
@@ -5719,7 +5717,7 @@
         <v>43</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="7" t="n">
         <v>5</v>
@@ -5730,37 +5728,37 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M19" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="7" t="n">
         <v>5</v>
@@ -5774,7 +5772,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>5</v>
@@ -5783,7 +5781,7 @@
         <v>43</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" s="7" t="n">
         <v>5</v>
@@ -5792,7 +5790,7 @@
         <v>43</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M20" s="7" t="n">
         <v>5</v>
@@ -5801,7 +5799,7 @@
         <v>43</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="n">
         <v>5</v>
@@ -5812,37 +5810,37 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I21" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M21" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q21" s="7" t="n">
         <v>5</v>
@@ -5856,7 +5854,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>5</v>
@@ -5865,7 +5863,7 @@
         <v>43</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I22" s="7" t="n">
         <v>5</v>
@@ -5874,7 +5872,7 @@
         <v>43</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M22" s="7" t="n">
         <v>5</v>
@@ -5883,7 +5881,7 @@
         <v>43</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q22" s="7" t="n">
         <v>5</v>
@@ -5894,37 +5892,37 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="7" t="n">
         <v>5</v>
@@ -5938,7 +5936,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="7" t="n">
         <v>5</v>
@@ -5947,7 +5945,7 @@
         <v>43</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I24" s="7" t="n">
         <v>5</v>
@@ -5956,7 +5954,7 @@
         <v>43</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M24" s="7" t="n">
         <v>5</v>
@@ -5965,7 +5963,7 @@
         <v>43</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="7" t="n">
         <v>5</v>
@@ -5976,37 +5974,37 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E25" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M25" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q25" s="7" t="n">
         <v>5</v>
@@ -6020,7 +6018,7 @@
         <v>43</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="7" t="n">
         <v>5</v>
@@ -6029,7 +6027,7 @@
         <v>43</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" s="7" t="n">
         <v>5</v>
@@ -6038,7 +6036,7 @@
         <v>43</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M26" s="7" t="n">
         <v>5</v>
@@ -6047,7 +6045,7 @@
         <v>43</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="7" t="n">
         <v>5</v>
@@ -6058,37 +6056,37 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E27" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I27" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="n">
         <v>5</v>
@@ -6102,7 +6100,7 @@
         <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" s="7" t="n">
         <v>5</v>
@@ -6111,7 +6109,7 @@
         <v>43</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I28" s="7" t="n">
         <v>5</v>
@@ -6120,7 +6118,7 @@
         <v>43</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M28" s="7" t="n">
         <v>5</v>
@@ -6129,7 +6127,7 @@
         <v>43</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q28" s="7" t="n">
         <v>5</v>
@@ -6140,37 +6138,37 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E29" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I29" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M29" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="7" t="n">
         <v>5</v>
@@ -6184,7 +6182,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E30" s="7" t="n">
         <v>5</v>
@@ -6193,7 +6191,7 @@
         <v>43</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I30" s="7" t="n">
         <v>5</v>
@@ -6202,7 +6200,7 @@
         <v>43</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M30" s="7" t="n">
         <v>5</v>
@@ -6211,7 +6209,7 @@
         <v>43</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="7" t="n">
         <v>5</v>
@@ -6222,37 +6220,37 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E31" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I31" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M31" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q31" s="7" t="n">
         <v>5</v>
@@ -6266,7 +6264,7 @@
         <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" s="7" t="n">
         <v>5</v>
@@ -6275,7 +6273,7 @@
         <v>43</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I32" s="7" t="n">
         <v>5</v>
@@ -6284,7 +6282,7 @@
         <v>43</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M32" s="7" t="n">
         <v>5</v>
@@ -6293,7 +6291,7 @@
         <v>43</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q32" s="7" t="n">
         <v>5</v>
@@ -6301,43 +6299,43 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E33" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I33" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M33" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="7" t="n">
         <v>5</v>
@@ -6351,7 +6349,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="7" t="n">
         <v>5</v>
@@ -6360,7 +6358,7 @@
         <v>43</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q34" s="7" t="n">
         <v>5</v>
@@ -6371,19 +6369,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E35" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="7" t="n">
         <v>5</v>
@@ -6397,7 +6395,7 @@
         <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="7" t="n">
         <v>5</v>
@@ -6406,7 +6404,7 @@
         <v>43</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q36" s="7" t="n">
         <v>5</v>
@@ -6417,19 +6415,19 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E37" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q37" s="7" t="n">
         <v>5</v>
@@ -6443,7 +6441,7 @@
         <v>43</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E38" s="7" t="n">
         <v>5</v>
@@ -6452,7 +6450,7 @@
         <v>43</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q38" s="7" t="n">
         <v>5</v>
@@ -6463,19 +6461,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E39" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q39" s="7" t="n">
         <v>5</v>
@@ -6489,7 +6487,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>5</v>
@@ -6498,7 +6496,7 @@
         <v>43</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q40" s="7" t="n">
         <v>5</v>
@@ -6509,19 +6507,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q41" s="7" t="n">
         <v>5</v>
@@ -6535,7 +6533,7 @@
         <v>43</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42" s="7" t="n">
         <v>5</v>
@@ -6544,7 +6542,7 @@
         <v>43</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q42" s="7" t="n">
         <v>5</v>
@@ -6555,19 +6553,19 @@
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q43" s="7" t="n">
         <v>5</v>
@@ -6581,7 +6579,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E44" s="7" t="n">
         <v>5</v>
@@ -6590,7 +6588,7 @@
         <v>43</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q44" s="7" t="n">
         <v>5</v>
@@ -6601,19 +6599,19 @@
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E45" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q45" s="7" t="n">
         <v>5</v>
@@ -6627,7 +6625,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E46" s="7" t="n">
         <v>5</v>
@@ -6636,7 +6634,7 @@
         <v>43</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q46" s="7" t="n">
         <v>5</v>
@@ -6647,19 +6645,19 @@
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E47" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q47" s="7" t="n">
         <v>5</v>
@@ -6673,7 +6671,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E48" s="7" t="n">
         <v>5</v>
@@ -6682,7 +6680,7 @@
         <v>43</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q48" s="7" t="n">
         <v>5</v>
@@ -6690,25 +6688,25 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q49" s="7" t="n">
         <v>5</v>
@@ -6722,7 +6720,7 @@
         <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E50" s="7" t="n">
         <v>5</v>
@@ -6731,7 +6729,7 @@
         <v>43</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q50" s="7" t="n">
         <v>5</v>
@@ -6742,19 +6740,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E51" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q51" s="7" t="n">
         <v>5</v>
@@ -6768,7 +6766,7 @@
         <v>43</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E52" s="7" t="n">
         <v>5</v>
@@ -6777,7 +6775,7 @@
         <v>43</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q52" s="7" t="n">
         <v>5</v>
@@ -6788,19 +6786,19 @@
         <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E53" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q53" s="7" t="n">
         <v>5</v>
@@ -6814,7 +6812,7 @@
         <v>43</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E54" s="7" t="n">
         <v>5</v>
@@ -6823,7 +6821,7 @@
         <v>43</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q54" s="7" t="n">
         <v>5</v>
@@ -6834,19 +6832,19 @@
         <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E55" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q55" s="7" t="n">
         <v>5</v>
@@ -6860,7 +6858,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E56" s="7" t="n">
         <v>5</v>
@@ -6869,7 +6867,7 @@
         <v>43</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q56" s="7" t="n">
         <v>5</v>
@@ -6880,19 +6878,19 @@
         <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E57" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q57" s="7" t="n">
         <v>5</v>
@@ -6906,7 +6904,7 @@
         <v>43</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E58" s="7" t="n">
         <v>5</v>
@@ -6915,7 +6913,7 @@
         <v>43</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q58" s="7" t="n">
         <v>5</v>
@@ -6926,19 +6924,19 @@
         <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E59" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q59" s="7" t="n">
         <v>5</v>
@@ -6952,7 +6950,7 @@
         <v>43</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E60" s="7" t="n">
         <v>5</v>
@@ -6961,7 +6959,7 @@
         <v>43</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q60" s="7" t="n">
         <v>5</v>
@@ -6972,19 +6970,19 @@
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E61" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q61" s="7" t="n">
         <v>5</v>
@@ -6998,7 +6996,7 @@
         <v>43</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E62" s="7" t="n">
         <v>5</v>
@@ -7007,7 +7005,7 @@
         <v>43</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q62" s="7" t="n">
         <v>5</v>
@@ -7018,19 +7016,19 @@
         <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q63" s="7" t="n">
         <v>5</v>
@@ -7044,7 +7042,7 @@
         <v>43</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E64" s="7" t="n">
         <v>5</v>
@@ -7053,7 +7051,7 @@
         <v>43</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q64" s="7" t="n">
         <v>5</v>
@@ -7061,25 +7059,25 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E65" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q65" s="7" t="n">
         <v>5</v>
@@ -7087,7 +7085,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>65</v>
@@ -7096,7 +7094,7 @@
         <v>43</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q66" s="7" t="n">
         <v>5</v>
@@ -7107,10 +7105,10 @@
         <v>66</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q67" s="7" t="n">
         <v>5</v>
@@ -7124,7 +7122,7 @@
         <v>43</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q68" s="7" t="n">
         <v>5</v>
@@ -7135,10 +7133,10 @@
         <v>68</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q69" s="7" t="n">
         <v>5</v>
@@ -7152,7 +7150,7 @@
         <v>43</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q70" s="7" t="n">
         <v>5</v>
@@ -7163,10 +7161,10 @@
         <v>70</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q71" s="7" t="n">
         <v>5</v>
@@ -7180,7 +7178,7 @@
         <v>43</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q72" s="7" t="n">
         <v>5</v>
@@ -7191,10 +7189,10 @@
         <v>72</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q73" s="7" t="n">
         <v>5</v>
@@ -7208,7 +7206,7 @@
         <v>43</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q74" s="7" t="n">
         <v>5</v>
@@ -7219,10 +7217,10 @@
         <v>74</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q75" s="7" t="n">
         <v>5</v>
@@ -7236,7 +7234,7 @@
         <v>43</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q76" s="7" t="n">
         <v>5</v>
@@ -7247,10 +7245,10 @@
         <v>76</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q77" s="7" t="n">
         <v>5</v>
@@ -7264,7 +7262,7 @@
         <v>43</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q78" s="7" t="n">
         <v>5</v>
@@ -7275,10 +7273,10 @@
         <v>78</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q79" s="7" t="n">
         <v>5</v>
@@ -7292,7 +7290,7 @@
         <v>43</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q80" s="7" t="n">
         <v>5</v>
@@ -7303,10 +7301,10 @@
         <v>80</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q81" s="7" t="n">
         <v>5</v>
@@ -7320,7 +7318,7 @@
         <v>43</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q82" s="7" t="n">
         <v>5</v>
@@ -7331,10 +7329,10 @@
         <v>82</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q83" s="7" t="n">
         <v>5</v>
@@ -7348,7 +7346,7 @@
         <v>43</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q84" s="7" t="n">
         <v>5</v>
@@ -7359,10 +7357,10 @@
         <v>84</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q85" s="7" t="n">
         <v>5</v>
@@ -7376,7 +7374,7 @@
         <v>43</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q86" s="7" t="n">
         <v>5</v>
@@ -7387,10 +7385,10 @@
         <v>86</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q87" s="7" t="n">
         <v>5</v>
@@ -7404,7 +7402,7 @@
         <v>43</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q88" s="7" t="n">
         <v>5</v>
@@ -7415,10 +7413,10 @@
         <v>88</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q89" s="7" t="n">
         <v>5</v>
@@ -7432,7 +7430,7 @@
         <v>43</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q90" s="7" t="n">
         <v>5</v>
@@ -7443,10 +7441,10 @@
         <v>90</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q91" s="7" t="n">
         <v>5</v>
@@ -7460,7 +7458,7 @@
         <v>43</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q92" s="7" t="n">
         <v>5</v>
@@ -7471,10 +7469,10 @@
         <v>92</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q93" s="7" t="n">
         <v>5</v>
@@ -7488,7 +7486,7 @@
         <v>43</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q94" s="7" t="n">
         <v>5</v>
@@ -7499,10 +7497,10 @@
         <v>94</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q95" s="7" t="n">
         <v>5</v>
@@ -7510,7 +7508,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>95</v>
@@ -7519,7 +7517,7 @@
         <v>43</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q96" s="7" t="n">
         <v>5</v>
@@ -7527,16 +7525,16 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>96</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q97" s="7" t="n">
         <v>5</v>
@@ -7550,7 +7548,7 @@
         <v>43</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q98" s="7" t="n">
         <v>5</v>
@@ -7561,10 +7559,10 @@
         <v>98</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q99" s="7" t="n">
         <v>5</v>
@@ -7578,7 +7576,7 @@
         <v>43</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q100" s="7" t="n">
         <v>5</v>
@@ -7589,10 +7587,10 @@
         <v>100</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q101" s="7" t="n">
         <v>5</v>
@@ -7606,7 +7604,7 @@
         <v>43</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q102" s="7" t="n">
         <v>5</v>
@@ -7617,10 +7615,10 @@
         <v>102</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q103" s="7" t="n">
         <v>5</v>
@@ -7634,7 +7632,7 @@
         <v>43</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q104" s="7" t="n">
         <v>5</v>
@@ -7645,10 +7643,10 @@
         <v>104</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q105" s="7" t="n">
         <v>5</v>
@@ -7662,7 +7660,7 @@
         <v>43</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q106" s="7" t="n">
         <v>5</v>
@@ -7673,10 +7671,10 @@
         <v>106</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q107" s="7" t="n">
         <v>5</v>
@@ -7690,7 +7688,7 @@
         <v>43</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q108" s="7" t="n">
         <v>5</v>
@@ -7701,10 +7699,10 @@
         <v>108</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q109" s="7" t="n">
         <v>5</v>
@@ -7718,7 +7716,7 @@
         <v>43</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q110" s="7" t="n">
         <v>5</v>
@@ -7729,10 +7727,10 @@
         <v>110</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q111" s="7" t="n">
         <v>5</v>
@@ -7746,7 +7744,7 @@
         <v>43</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q112" s="7" t="n">
         <v>5</v>
@@ -7757,10 +7755,10 @@
         <v>112</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q113" s="7" t="n">
         <v>5</v>
@@ -7774,7 +7772,7 @@
         <v>43</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q114" s="7" t="n">
         <v>5</v>
@@ -7785,10 +7783,10 @@
         <v>114</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q115" s="7" t="n">
         <v>5</v>
@@ -7802,7 +7800,7 @@
         <v>43</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q116" s="7" t="n">
         <v>5</v>
@@ -7813,10 +7811,10 @@
         <v>116</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q117" s="7" t="n">
         <v>5</v>
@@ -7830,7 +7828,7 @@
         <v>43</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q118" s="7" t="n">
         <v>5</v>
@@ -7841,10 +7839,10 @@
         <v>118</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q119" s="7" t="n">
         <v>5</v>
@@ -7858,7 +7856,7 @@
         <v>43</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q120" s="7" t="n">
         <v>5</v>
@@ -7869,10 +7867,10 @@
         <v>120</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q121" s="7" t="n">
         <v>5</v>
@@ -7886,7 +7884,7 @@
         <v>43</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q122" s="7" t="n">
         <v>5</v>
@@ -7897,10 +7895,10 @@
         <v>122</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q123" s="7" t="n">
         <v>5</v>
@@ -7914,7 +7912,7 @@
         <v>43</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q124" s="7" t="n">
         <v>5</v>
@@ -7925,10 +7923,10 @@
         <v>124</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q125" s="7" t="n">
         <v>5</v>
@@ -7942,7 +7940,7 @@
         <v>43</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q126" s="7" t="n">
         <v>5</v>
@@ -7953,10 +7951,10 @@
         <v>126</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q127" s="7" t="n">
         <v>5</v>
@@ -7970,7 +7968,7 @@
         <v>43</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q128" s="7" t="n">
         <v>5</v>
@@ -7978,16 +7976,16 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>128</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q129" s="7" t="n">
         <v>5</v>
@@ -8018,7 +8016,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="P14:P129 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8030,24 +8028,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dLiveChannelListTesting.xlsx
+++ b/dLiveChannelListTesting.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="207">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">Mute8</t>
   </si>
   <si>
-    <t xml:space="preserve">KickIn</t>
+    <t xml:space="preserve">TST001</t>
   </si>
   <si>
     <t xml:space="preserve">blue</t>
@@ -162,163 +162,406 @@
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">KickOut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SnTop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SnBot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rack1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rack2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OH L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OH R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cajon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empty</t>
+    <t xml:space="preserve">TST002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST014</t>
   </si>
   <si>
     <t xml:space="preserve">black</t>
   </si>
   <si>
-    <t xml:space="preserve">emtpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BassDI</t>
+    <t xml:space="preserve">TST015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST017</t>
   </si>
   <si>
     <t xml:space="preserve">red</t>
   </si>
   <si>
-    <t xml:space="preserve">BassMi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGit1L</t>
+    <t xml:space="preserve">TST018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST019</t>
   </si>
   <si>
     <t xml:space="preserve">yellow</t>
   </si>
   <si>
-    <t xml:space="preserve">EGit1R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGit2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGit2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGit3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGit3R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accu1L</t>
+    <t xml:space="preserve">TST020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST025</t>
   </si>
   <si>
     <t xml:space="preserve">green</t>
   </si>
   <si>
-    <t xml:space="preserve">Accu1R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accu2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accu3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key1L</t>
+    <t xml:space="preserve">TST026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST029</t>
   </si>
   <si>
     <t xml:space="preserve">light blue</t>
   </si>
   <si>
-    <t xml:space="preserve">Key1R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key3R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key4L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key4R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divrs1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divrs2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divrs3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divrs4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead1</t>
+    <t xml:space="preserve">TST030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST041</t>
   </si>
   <si>
     <t xml:space="preserve">white</t>
   </si>
   <si>
-    <t xml:space="preserve">Lead2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BV1</t>
+    <t xml:space="preserve">TST042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST045</t>
   </si>
   <si>
     <t xml:space="preserve">purple</t>
   </si>
   <si>
-    <t xml:space="preserve">BV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BV3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BV4</t>
+    <t xml:space="preserve">TST046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST128</t>
   </si>
   <si>
     <t xml:space="preserve">Indication Start/End Channel
@@ -700,8 +943,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E130" activeCellId="0" sqref="E130:E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1361,7 +1604,7 @@
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1371,7 +1614,7 @@
         <v>44</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>-99</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>43</v>
@@ -1403,7 +1646,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>-99</v>
+        <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>44</v>
@@ -1426,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>59</v>
@@ -1435,7 +1678,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>43</v>
@@ -1458,16 +1701,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>44</v>
@@ -1493,16 +1736,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>-99</v>
+        <v>-10</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>43</v>
@@ -1528,16 +1771,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>-99</v>
+        <v>-15</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>44</v>
@@ -1563,16 +1806,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>-99</v>
+        <v>-20</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>43</v>
@@ -1598,16 +1841,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>-99</v>
+        <v>-25</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>44</v>
@@ -1633,16 +1876,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>-99</v>
+        <v>-30</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>43</v>
@@ -1668,16 +1911,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>-99</v>
+        <v>-35</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>44</v>
@@ -1703,16 +1946,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>-99</v>
+        <v>-40</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>43</v>
@@ -1738,16 +1981,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>-99</v>
+        <v>-45</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>44</v>
@@ -1773,10 +2016,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>44</v>
@@ -1808,16 +2051,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>-99</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>44</v>
@@ -1843,16 +2086,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>-99</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>43</v>
@@ -1878,16 +2121,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>44</v>
@@ -1913,16 +2156,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="D31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>43</v>
@@ -1948,16 +2191,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>-99</v>
+        <v>-10</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>44</v>
@@ -1983,16 +2226,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>-99</v>
+        <v>-15</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>43</v>
@@ -2018,16 +2261,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>-99</v>
+        <v>-20</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>44</v>
@@ -2053,16 +2296,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>-99</v>
+        <v>-25</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>43</v>
@@ -2088,16 +2331,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>-99</v>
+        <v>-30</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>44</v>
@@ -2123,16 +2366,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>-99</v>
+        <v>-35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>43</v>
@@ -2158,7 +2401,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>59</v>
@@ -2167,7 +2410,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>-99</v>
+        <v>-40</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>44</v>
@@ -2193,7 +2436,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>59</v>
@@ -2202,7 +2445,7 @@
         <v>44</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>-99</v>
+        <v>-45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>43</v>
@@ -2228,7 +2471,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>59</v>
@@ -2263,7 +2506,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>59</v>
@@ -2272,7 +2515,7 @@
         <v>44</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>-99</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>43</v>
@@ -2298,16 +2541,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E42" s="7" t="n">
-        <v>-99</v>
+        <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>44</v>
@@ -2333,16 +2576,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="D43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="7" t="n">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>43</v>
@@ -2368,16 +2611,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E44" s="7" t="n">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>44</v>
@@ -2403,16 +2646,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="7" t="n">
-        <v>-99</v>
+        <v>-10</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>43</v>
@@ -2438,16 +2681,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="7" t="n">
-        <v>-99</v>
+        <v>-15</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>44</v>
@@ -2473,16 +2716,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="D47" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E47" s="7" t="n">
-        <v>-99</v>
+        <v>-20</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>43</v>
@@ -2508,16 +2751,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E48" s="7" t="n">
-        <v>-99</v>
+        <v>-25</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>44</v>
@@ -2543,16 +2786,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E49" s="7" t="n">
-        <v>-99</v>
+        <v>-30</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>43</v>
@@ -2577,8 +2820,8 @@
       <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>58</v>
+      <c r="B50" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>59</v>
@@ -2587,7 +2830,7 @@
         <v>43</v>
       </c>
       <c r="E50" s="7" t="n">
-        <v>-99</v>
+        <v>-35</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>44</v>
@@ -2606,8 +2849,8 @@
       <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>58</v>
+      <c r="B51" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>59</v>
@@ -2616,7 +2859,7 @@
         <v>44</v>
       </c>
       <c r="E51" s="7" t="n">
-        <v>-99</v>
+        <v>-40</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>43</v>
@@ -2635,8 +2878,8 @@
       <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>58</v>
+      <c r="B52" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>59</v>
@@ -2645,7 +2888,7 @@
         <v>43</v>
       </c>
       <c r="E52" s="7" t="n">
-        <v>-99</v>
+        <v>-45</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>44</v>
@@ -2664,8 +2907,8 @@
       <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>58</v>
+      <c r="B53" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>59</v>
@@ -2693,8 +2936,8 @@
       <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>58</v>
+      <c r="B54" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>59</v>
@@ -2703,7 +2946,7 @@
         <v>43</v>
       </c>
       <c r="E54" s="7" t="n">
-        <v>-99</v>
+        <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>44</v>
@@ -2722,8 +2965,8 @@
       <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>58</v>
+      <c r="B55" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>59</v>
@@ -2732,7 +2975,7 @@
         <v>44</v>
       </c>
       <c r="E55" s="7" t="n">
-        <v>-99</v>
+        <v>5</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>43</v>
@@ -2751,8 +2994,8 @@
       <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>58</v>
+      <c r="B56" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>59</v>
@@ -2761,7 +3004,7 @@
         <v>43</v>
       </c>
       <c r="E56" s="7" t="n">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>44</v>
@@ -2780,8 +3023,8 @@
       <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>58</v>
+      <c r="B57" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>59</v>
@@ -2790,7 +3033,7 @@
         <v>44</v>
       </c>
       <c r="E57" s="7" t="n">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>43</v>
@@ -2809,8 +3052,8 @@
       <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>58</v>
+      <c r="B58" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>59</v>
@@ -2819,7 +3062,7 @@
         <v>43</v>
       </c>
       <c r="E58" s="7" t="n">
-        <v>-99</v>
+        <v>-10</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>44</v>
@@ -2838,8 +3081,8 @@
       <c r="A59" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>58</v>
+      <c r="B59" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>59</v>
@@ -2848,7 +3091,7 @@
         <v>44</v>
       </c>
       <c r="E59" s="7" t="n">
-        <v>-99</v>
+        <v>-15</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>43</v>
@@ -2867,8 +3110,8 @@
       <c r="A60" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>58</v>
+      <c r="B60" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>59</v>
@@ -2877,7 +3120,7 @@
         <v>43</v>
       </c>
       <c r="E60" s="7" t="n">
-        <v>-99</v>
+        <v>-20</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>44</v>
@@ -2896,8 +3139,8 @@
       <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>58</v>
+      <c r="B61" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>59</v>
@@ -2906,7 +3149,7 @@
         <v>44</v>
       </c>
       <c r="E61" s="7" t="n">
-        <v>-99</v>
+        <v>-25</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>43</v>
@@ -2925,8 +3168,8 @@
       <c r="A62" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>58</v>
+      <c r="B62" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>59</v>
@@ -2935,7 +3178,7 @@
         <v>43</v>
       </c>
       <c r="E62" s="7" t="n">
-        <v>-99</v>
+        <v>-30</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>44</v>
@@ -2954,8 +3197,8 @@
       <c r="A63" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>58</v>
+      <c r="B63" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>59</v>
@@ -2964,7 +3207,7 @@
         <v>44</v>
       </c>
       <c r="E63" s="7" t="n">
-        <v>-99</v>
+        <v>-35</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>43</v>
@@ -2983,8 +3226,8 @@
       <c r="A64" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>58</v>
+      <c r="B64" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>59</v>
@@ -2993,7 +3236,7 @@
         <v>43</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>-99</v>
+        <v>-40</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>44</v>
@@ -3012,8 +3255,8 @@
       <c r="A65" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>58</v>
+      <c r="B65" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>59</v>
@@ -3022,7 +3265,7 @@
         <v>44</v>
       </c>
       <c r="E65" s="7" t="n">
-        <v>-99</v>
+        <v>-45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>43</v>
@@ -3041,8 +3284,8 @@
       <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>58</v>
+      <c r="B66" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>59</v>
@@ -3070,8 +3313,8 @@
       <c r="A67" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>58</v>
+      <c r="B67" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>59</v>
@@ -3080,7 +3323,7 @@
         <v>44</v>
       </c>
       <c r="E67" s="7" t="n">
-        <v>-99</v>
+        <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>43</v>
@@ -3099,8 +3342,8 @@
       <c r="A68" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>58</v>
+      <c r="B68" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>59</v>
@@ -3109,7 +3352,7 @@
         <v>43</v>
       </c>
       <c r="E68" s="7" t="n">
-        <v>-99</v>
+        <v>5</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>44</v>
@@ -3128,8 +3371,8 @@
       <c r="A69" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>58</v>
+      <c r="B69" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>59</v>
@@ -3138,7 +3381,7 @@
         <v>44</v>
       </c>
       <c r="E69" s="7" t="n">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>43</v>
@@ -3157,8 +3400,8 @@
       <c r="A70" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>58</v>
+      <c r="B70" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>59</v>
@@ -3167,7 +3410,7 @@
         <v>43</v>
       </c>
       <c r="E70" s="7" t="n">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>44</v>
@@ -3186,8 +3429,8 @@
       <c r="A71" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>58</v>
+      <c r="B71" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>59</v>
@@ -3196,7 +3439,7 @@
         <v>44</v>
       </c>
       <c r="E71" s="7" t="n">
-        <v>-99</v>
+        <v>-10</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>43</v>
@@ -3215,8 +3458,8 @@
       <c r="A72" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>58</v>
+      <c r="B72" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>59</v>
@@ -3225,7 +3468,7 @@
         <v>43</v>
       </c>
       <c r="E72" s="7" t="n">
-        <v>-99</v>
+        <v>-15</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>44</v>
@@ -3244,8 +3487,8 @@
       <c r="A73" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>58</v>
+      <c r="B73" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>59</v>
@@ -3254,7 +3497,7 @@
         <v>44</v>
       </c>
       <c r="E73" s="7" t="n">
-        <v>-99</v>
+        <v>-20</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>43</v>
@@ -3273,8 +3516,8 @@
       <c r="A74" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>58</v>
+      <c r="B74" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>59</v>
@@ -3283,7 +3526,7 @@
         <v>43</v>
       </c>
       <c r="E74" s="7" t="n">
-        <v>-99</v>
+        <v>-25</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>44</v>
@@ -3302,8 +3545,8 @@
       <c r="A75" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>58</v>
+      <c r="B75" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>59</v>
@@ -3312,7 +3555,7 @@
         <v>44</v>
       </c>
       <c r="E75" s="7" t="n">
-        <v>-99</v>
+        <v>-30</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>43</v>
@@ -3331,8 +3574,8 @@
       <c r="A76" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>58</v>
+      <c r="B76" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>59</v>
@@ -3341,7 +3584,7 @@
         <v>43</v>
       </c>
       <c r="E76" s="7" t="n">
-        <v>-99</v>
+        <v>-35</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>44</v>
@@ -3360,8 +3603,8 @@
       <c r="A77" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>58</v>
+      <c r="B77" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>59</v>
@@ -3370,7 +3613,7 @@
         <v>44</v>
       </c>
       <c r="E77" s="7" t="n">
-        <v>-99</v>
+        <v>-40</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>43</v>
@@ -3389,8 +3632,8 @@
       <c r="A78" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>58</v>
+      <c r="B78" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>59</v>
@@ -3399,7 +3642,7 @@
         <v>43</v>
       </c>
       <c r="E78" s="7" t="n">
-        <v>-99</v>
+        <v>-45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>44</v>
@@ -3418,8 +3661,8 @@
       <c r="A79" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>58</v>
+      <c r="B79" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>59</v>
@@ -3447,8 +3690,8 @@
       <c r="A80" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>58</v>
+      <c r="B80" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>59</v>
@@ -3457,7 +3700,7 @@
         <v>43</v>
       </c>
       <c r="E80" s="7" t="n">
-        <v>-99</v>
+        <v>10</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>44</v>
@@ -3476,8 +3719,8 @@
       <c r="A81" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>58</v>
+      <c r="B81" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>59</v>
@@ -3486,7 +3729,7 @@
         <v>44</v>
       </c>
       <c r="E81" s="7" t="n">
-        <v>-99</v>
+        <v>5</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>43</v>
@@ -3505,8 +3748,8 @@
       <c r="A82" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>58</v>
+      <c r="B82" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>59</v>
@@ -3515,7 +3758,7 @@
         <v>43</v>
       </c>
       <c r="E82" s="7" t="n">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>44</v>
@@ -3534,8 +3777,8 @@
       <c r="A83" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>58</v>
+      <c r="B83" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>59</v>
@@ -3544,7 +3787,7 @@
         <v>44</v>
       </c>
       <c r="E83" s="7" t="n">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>43</v>
@@ -3563,8 +3806,8 @@
       <c r="A84" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>58</v>
+      <c r="B84" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>59</v>
@@ -3573,7 +3816,7 @@
         <v>43</v>
       </c>
       <c r="E84" s="7" t="n">
-        <v>-99</v>
+        <v>-10</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>44</v>
@@ -3592,8 +3835,8 @@
       <c r="A85" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>58</v>
+      <c r="B85" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>59</v>
@@ -3602,7 +3845,7 @@
         <v>44</v>
       </c>
       <c r="E85" s="7" t="n">
-        <v>-99</v>
+        <v>-15</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>43</v>
@@ -3621,8 +3864,8 @@
       <c r="A86" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>58</v>
+      <c r="B86" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>59</v>
@@ -3631,7 +3874,7 @@
         <v>43</v>
       </c>
       <c r="E86" s="7" t="n">
-        <v>-99</v>
+        <v>-20</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>44</v>
@@ -3650,8 +3893,8 @@
       <c r="A87" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>58</v>
+      <c r="B87" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>59</v>
@@ -3660,7 +3903,7 @@
         <v>44</v>
       </c>
       <c r="E87" s="7" t="n">
-        <v>-99</v>
+        <v>-25</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>43</v>
@@ -3679,8 +3922,8 @@
       <c r="A88" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>58</v>
+      <c r="B88" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>59</v>
@@ -3689,7 +3932,7 @@
         <v>43</v>
       </c>
       <c r="E88" s="7" t="n">
-        <v>-99</v>
+        <v>-30</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>44</v>
@@ -3708,8 +3951,8 @@
       <c r="A89" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>58</v>
+      <c r="B89" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>59</v>
@@ -3718,7 +3961,7 @@
         <v>44</v>
       </c>
       <c r="E89" s="7" t="n">
-        <v>-99</v>
+        <v>-35</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>43</v>
@@ -3737,8 +3980,8 @@
       <c r="A90" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>58</v>
+      <c r="B90" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>59</v>
@@ -3747,7 +3990,7 @@
         <v>43</v>
       </c>
       <c r="E90" s="7" t="n">
-        <v>-99</v>
+        <v>-40</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>44</v>
@@ -3766,8 +4009,8 @@
       <c r="A91" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>58</v>
+      <c r="B91" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>59</v>
@@ -3776,7 +4019,7 @@
         <v>44</v>
       </c>
       <c r="E91" s="7" t="n">
-        <v>-99</v>
+        <v>-45</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>43</v>
@@ -3795,8 +4038,8 @@
       <c r="A92" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>58</v>
+      <c r="B92" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>59</v>
@@ -3824,8 +4067,8 @@
       <c r="A93" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>58</v>
+      <c r="B93" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>59</v>
@@ -3834,7 +4077,7 @@
         <v>44</v>
       </c>
       <c r="E93" s="7" t="n">
-        <v>-99</v>
+        <v>10</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>43</v>
@@ -3853,8 +4096,8 @@
       <c r="A94" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>58</v>
+      <c r="B94" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>59</v>
@@ -3863,7 +4106,7 @@
         <v>43</v>
       </c>
       <c r="E94" s="7" t="n">
-        <v>-99</v>
+        <v>5</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>44</v>
@@ -3882,8 +4125,8 @@
       <c r="A95" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>58</v>
+      <c r="B95" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>59</v>
@@ -3892,7 +4135,7 @@
         <v>44</v>
       </c>
       <c r="E95" s="7" t="n">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>43</v>
@@ -3911,8 +4154,8 @@
       <c r="A96" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>58</v>
+      <c r="B96" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>59</v>
@@ -3921,7 +4164,7 @@
         <v>43</v>
       </c>
       <c r="E96" s="7" t="n">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>44</v>
@@ -3940,8 +4183,8 @@
       <c r="A97" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>58</v>
+      <c r="B97" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>59</v>
@@ -3950,7 +4193,7 @@
         <v>44</v>
       </c>
       <c r="E97" s="7" t="n">
-        <v>-99</v>
+        <v>-10</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>43</v>
@@ -3969,8 +4212,8 @@
       <c r="A98" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>58</v>
+      <c r="B98" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>59</v>
@@ -3979,7 +4222,7 @@
         <v>43</v>
       </c>
       <c r="E98" s="7" t="n">
-        <v>-99</v>
+        <v>-15</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>44</v>
@@ -3998,8 +4241,8 @@
       <c r="A99" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>58</v>
+      <c r="B99" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>59</v>
@@ -4008,7 +4251,7 @@
         <v>44</v>
       </c>
       <c r="E99" s="7" t="n">
-        <v>-99</v>
+        <v>-20</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>43</v>
@@ -4027,8 +4270,8 @@
       <c r="A100" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>58</v>
+      <c r="B100" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>59</v>
@@ -4037,7 +4280,7 @@
         <v>43</v>
       </c>
       <c r="E100" s="7" t="n">
-        <v>-99</v>
+        <v>-25</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>44</v>
@@ -4056,8 +4299,8 @@
       <c r="A101" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>58</v>
+      <c r="B101" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>59</v>
@@ -4066,7 +4309,7 @@
         <v>44</v>
       </c>
       <c r="E101" s="7" t="n">
-        <v>-99</v>
+        <v>-30</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>43</v>
@@ -4085,8 +4328,8 @@
       <c r="A102" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>58</v>
+      <c r="B102" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>59</v>
@@ -4095,7 +4338,7 @@
         <v>43</v>
       </c>
       <c r="E102" s="7" t="n">
-        <v>-99</v>
+        <v>-35</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>44</v>
@@ -4114,8 +4357,8 @@
       <c r="A103" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>58</v>
+      <c r="B103" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>59</v>
@@ -4124,7 +4367,7 @@
         <v>44</v>
       </c>
       <c r="E103" s="7" t="n">
-        <v>-99</v>
+        <v>-40</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>43</v>
@@ -4143,8 +4386,8 @@
       <c r="A104" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>58</v>
+      <c r="B104" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>59</v>
@@ -4153,7 +4396,7 @@
         <v>43</v>
       </c>
       <c r="E104" s="7" t="n">
-        <v>-99</v>
+        <v>-45</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>44</v>
@@ -4172,8 +4415,8 @@
       <c r="A105" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>58</v>
+      <c r="B105" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>59</v>
@@ -4201,8 +4444,8 @@
       <c r="A106" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>58</v>
+      <c r="B106" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>59</v>
@@ -4211,7 +4454,7 @@
         <v>43</v>
       </c>
       <c r="E106" s="7" t="n">
-        <v>-99</v>
+        <v>10</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>44</v>
@@ -4230,8 +4473,8 @@
       <c r="A107" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>58</v>
+      <c r="B107" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>59</v>
@@ -4240,7 +4483,7 @@
         <v>44</v>
       </c>
       <c r="E107" s="7" t="n">
-        <v>-99</v>
+        <v>5</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>43</v>
@@ -4259,8 +4502,8 @@
       <c r="A108" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>58</v>
+      <c r="B108" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>59</v>
@@ -4269,7 +4512,7 @@
         <v>43</v>
       </c>
       <c r="E108" s="7" t="n">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>44</v>
@@ -4288,8 +4531,8 @@
       <c r="A109" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>58</v>
+      <c r="B109" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>59</v>
@@ -4298,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="E109" s="7" t="n">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>43</v>
@@ -4317,8 +4560,8 @@
       <c r="A110" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>58</v>
+      <c r="B110" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>59</v>
@@ -4327,7 +4570,7 @@
         <v>43</v>
       </c>
       <c r="E110" s="7" t="n">
-        <v>-99</v>
+        <v>-10</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>44</v>
@@ -4346,8 +4589,8 @@
       <c r="A111" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>58</v>
+      <c r="B111" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>59</v>
@@ -4356,7 +4599,7 @@
         <v>44</v>
       </c>
       <c r="E111" s="7" t="n">
-        <v>-99</v>
+        <v>-15</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>43</v>
@@ -4375,8 +4618,8 @@
       <c r="A112" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>58</v>
+      <c r="B112" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>59</v>
@@ -4385,7 +4628,7 @@
         <v>43</v>
       </c>
       <c r="E112" s="7" t="n">
-        <v>-99</v>
+        <v>-20</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>44</v>
@@ -4404,8 +4647,8 @@
       <c r="A113" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>58</v>
+      <c r="B113" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>59</v>
@@ -4414,7 +4657,7 @@
         <v>44</v>
       </c>
       <c r="E113" s="7" t="n">
-        <v>-99</v>
+        <v>-25</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>43</v>
@@ -4433,8 +4676,8 @@
       <c r="A114" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>58</v>
+      <c r="B114" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>59</v>
@@ -4443,7 +4686,7 @@
         <v>43</v>
       </c>
       <c r="E114" s="7" t="n">
-        <v>-99</v>
+        <v>-30</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>44</v>
@@ -4462,8 +4705,8 @@
       <c r="A115" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>58</v>
+      <c r="B115" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>59</v>
@@ -4472,7 +4715,7 @@
         <v>44</v>
       </c>
       <c r="E115" s="7" t="n">
-        <v>-99</v>
+        <v>-35</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>43</v>
@@ -4491,8 +4734,8 @@
       <c r="A116" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>58</v>
+      <c r="B116" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>59</v>
@@ -4501,7 +4744,7 @@
         <v>43</v>
       </c>
       <c r="E116" s="7" t="n">
-        <v>-99</v>
+        <v>-40</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>44</v>
@@ -4520,8 +4763,8 @@
       <c r="A117" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>58</v>
+      <c r="B117" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>59</v>
@@ -4530,7 +4773,7 @@
         <v>44</v>
       </c>
       <c r="E117" s="7" t="n">
-        <v>-99</v>
+        <v>-45</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>43</v>
@@ -4549,8 +4792,8 @@
       <c r="A118" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>58</v>
+      <c r="B118" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>59</v>
@@ -4578,8 +4821,8 @@
       <c r="A119" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>58</v>
+      <c r="B119" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>59</v>
@@ -4588,7 +4831,7 @@
         <v>44</v>
       </c>
       <c r="E119" s="7" t="n">
-        <v>-99</v>
+        <v>10</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>43</v>
@@ -4607,8 +4850,8 @@
       <c r="A120" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>58</v>
+      <c r="B120" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>59</v>
@@ -4617,7 +4860,7 @@
         <v>43</v>
       </c>
       <c r="E120" s="7" t="n">
-        <v>-99</v>
+        <v>5</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>44</v>
@@ -4636,8 +4879,8 @@
       <c r="A121" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>58</v>
+      <c r="B121" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>59</v>
@@ -4646,7 +4889,7 @@
         <v>44</v>
       </c>
       <c r="E121" s="7" t="n">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>43</v>
@@ -4665,8 +4908,8 @@
       <c r="A122" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>58</v>
+      <c r="B122" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>59</v>
@@ -4675,7 +4918,7 @@
         <v>43</v>
       </c>
       <c r="E122" s="7" t="n">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>44</v>
@@ -4694,8 +4937,8 @@
       <c r="A123" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>58</v>
+      <c r="B123" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>59</v>
@@ -4704,7 +4947,7 @@
         <v>44</v>
       </c>
       <c r="E123" s="7" t="n">
-        <v>-99</v>
+        <v>-10</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>43</v>
@@ -4723,8 +4966,8 @@
       <c r="A124" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>58</v>
+      <c r="B124" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>59</v>
@@ -4733,7 +4976,7 @@
         <v>43</v>
       </c>
       <c r="E124" s="7" t="n">
-        <v>-99</v>
+        <v>-15</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>44</v>
@@ -4752,8 +4995,8 @@
       <c r="A125" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>58</v>
+      <c r="B125" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>59</v>
@@ -4762,7 +5005,7 @@
         <v>44</v>
       </c>
       <c r="E125" s="7" t="n">
-        <v>-99</v>
+        <v>-20</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>43</v>
@@ -4781,8 +5024,8 @@
       <c r="A126" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>58</v>
+      <c r="B126" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>59</v>
@@ -4791,7 +5034,7 @@
         <v>43</v>
       </c>
       <c r="E126" s="7" t="n">
-        <v>-99</v>
+        <v>-25</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>44</v>
@@ -4810,8 +5053,8 @@
       <c r="A127" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>58</v>
+      <c r="B127" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>59</v>
@@ -4820,7 +5063,7 @@
         <v>44</v>
       </c>
       <c r="E127" s="7" t="n">
-        <v>-99</v>
+        <v>-30</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>43</v>
@@ -4839,8 +5082,8 @@
       <c r="A128" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>58</v>
+      <c r="B128" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>59</v>
@@ -4849,7 +5092,7 @@
         <v>43</v>
       </c>
       <c r="E128" s="7" t="n">
-        <v>-99</v>
+        <v>-35</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>44</v>
@@ -4868,8 +5111,8 @@
       <c r="A129" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>58</v>
+      <c r="B129" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>59</v>
@@ -4878,7 +5121,7 @@
         <v>44</v>
       </c>
       <c r="E129" s="7" t="n">
-        <v>-99</v>
+        <v>-40</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>43</v>
@@ -4925,20 +5168,16 @@
       <formula>"blue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C129" type="list">
       <formula1>"blue,red,yellow,green,light blue,white,purple,black"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E130:E131" type="list">
-      <formula1>"+10,+5,0,-5,-10,-15,-20,-25,-30,-35,-40,-45,-inf"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G129" type="decimal">
       <formula1>20</formula1>
       <formula2>2000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E129" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E131" type="list">
       <formula1>"+10,+5,0,-5,-10,-15,-20,-25,-30,-35,-40,-45,-99"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4961,7 +5200,7 @@
   <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="E130:E131 Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4978,49 +5217,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="11" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="12" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="13" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,7 +5715,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>12</v>
@@ -6299,7 +6538,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>32</v>
@@ -6688,7 +6927,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>48</v>
@@ -7059,7 +7298,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>64</v>
@@ -7085,7 +7324,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>65</v>
@@ -7508,7 +7747,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>95</v>
@@ -7525,7 +7764,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>96</v>
@@ -7976,7 +8215,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>128</v>
@@ -8016,7 +8255,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="E130:E131 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8028,24 +8267,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dLiveChannelListTesting.xlsx
+++ b/dLiveChannelListTesting.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="207">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -198,247 +198,247 @@
     <t xml:space="preserve">TST013</t>
   </si>
   <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
     <t xml:space="preserve">TST014</t>
   </si>
   <si>
+    <t xml:space="preserve">TST015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST073</t>
+  </si>
+  <si>
     <t xml:space="preserve">black</t>
   </si>
   <si>
-    <t xml:space="preserve">TST015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST019</t>
+    <t xml:space="preserve">TST074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST087</t>
   </si>
   <si>
     <t xml:space="preserve">yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST087</t>
   </si>
   <si>
     <t xml:space="preserve">TST088</t>
@@ -943,8 +943,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E130" activeCellId="0" sqref="E130:E131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E59" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T71" activeCellId="0" sqref="T71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1573,7 +1573,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
@@ -1605,10 +1605,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>44</v>
@@ -1627,6 +1627,9 @@
       </c>
       <c r="J15" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="AK15" s="2" t="s">
         <v>45</v>
@@ -1640,7 +1643,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
@@ -1659,6 +1662,9 @@
       </c>
       <c r="J16" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="AK16" s="2" t="s">
         <v>45</v>
@@ -1672,7 +1678,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>44</v>
@@ -1691,6 +1697,9 @@
       </c>
       <c r="J17" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="AK17" s="2" t="s">
         <v>45</v>
@@ -1704,7 +1713,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>43</v>
@@ -1724,7 +1733,7 @@
       <c r="J18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK18" s="2" t="s">
@@ -1736,10 +1745,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>44</v>
@@ -1759,7 +1768,7 @@
       <c r="J19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK19" s="2" t="s">
@@ -1771,10 +1780,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>43</v>
@@ -1794,7 +1803,7 @@
       <c r="J20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK20" s="2" t="s">
@@ -1806,10 +1815,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>44</v>
@@ -1829,7 +1838,7 @@
       <c r="J21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK21" s="2" t="s">
@@ -1841,10 +1850,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>43</v>
@@ -1864,7 +1873,7 @@
       <c r="J22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK22" s="2" t="s">
@@ -1876,10 +1885,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>44</v>
@@ -1899,7 +1908,7 @@
       <c r="J23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK23" s="2" t="s">
@@ -1911,10 +1920,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>43</v>
@@ -1934,7 +1943,7 @@
       <c r="J24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK24" s="2" t="s">
@@ -1946,10 +1955,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>44</v>
@@ -1969,7 +1978,7 @@
       <c r="J25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK25" s="2" t="s">
@@ -1981,10 +1990,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
@@ -2004,7 +2013,7 @@
       <c r="J26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK26" s="2" t="s">
@@ -2016,10 +2025,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>44</v>
@@ -2039,7 +2048,7 @@
       <c r="J27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK27" s="2" t="s">
@@ -2051,10 +2060,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
@@ -2074,7 +2083,7 @@
       <c r="J28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK28" s="2" t="s">
@@ -2086,10 +2095,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>44</v>
@@ -2109,7 +2118,7 @@
       <c r="J29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK29" s="2" t="s">
@@ -2121,10 +2130,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>43</v>
@@ -2144,7 +2153,7 @@
       <c r="J30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK30" s="2" t="s">
@@ -2156,10 +2165,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>44</v>
@@ -2179,7 +2188,7 @@
       <c r="J31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK31" s="2" t="s">
@@ -2191,10 +2200,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>43</v>
@@ -2214,7 +2223,7 @@
       <c r="J32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK32" s="2" t="s">
@@ -2226,10 +2235,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>44</v>
@@ -2249,7 +2258,7 @@
       <c r="J33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK33" s="2" t="s">
@@ -2261,10 +2270,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>43</v>
@@ -2284,7 +2293,7 @@
       <c r="J34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK34" s="2" t="s">
@@ -2296,10 +2305,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>44</v>
@@ -2319,7 +2328,7 @@
       <c r="J35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK35" s="2" t="s">
@@ -2331,10 +2340,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>43</v>
@@ -2354,7 +2363,7 @@
       <c r="J36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK36" s="2" t="s">
@@ -2366,10 +2375,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>44</v>
@@ -2389,7 +2398,7 @@
       <c r="J37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK37" s="2" t="s">
@@ -2401,10 +2410,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>43</v>
@@ -2424,7 +2433,7 @@
       <c r="J38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK38" s="2" t="s">
@@ -2436,10 +2445,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>44</v>
@@ -2459,7 +2468,7 @@
       <c r="J39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK39" s="2" t="s">
@@ -2471,10 +2480,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>43</v>
@@ -2494,7 +2503,7 @@
       <c r="J40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK40" s="2" t="s">
@@ -2506,10 +2515,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>44</v>
@@ -2529,7 +2538,7 @@
       <c r="J41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AK41" s="2" t="s">
@@ -2541,10 +2550,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>43</v>
@@ -2564,7 +2573,7 @@
       <c r="J42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AL42" s="2" t="s">
@@ -2576,10 +2585,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>44</v>
@@ -2599,7 +2608,7 @@
       <c r="J43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AL43" s="2" t="s">
@@ -2611,10 +2620,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>43</v>
@@ -2634,7 +2643,7 @@
       <c r="J44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S44" s="2" t="s">
+      <c r="O44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AL44" s="2" t="s">
@@ -2646,10 +2655,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>44</v>
@@ -2669,7 +2678,7 @@
       <c r="J45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AL45" s="2" t="s">
@@ -2681,10 +2690,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>43</v>
@@ -2704,7 +2713,7 @@
       <c r="J46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="O46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AL46" s="2" t="s">
@@ -2716,10 +2725,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>44</v>
@@ -2739,7 +2748,7 @@
       <c r="J47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="O47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AL47" s="2" t="s">
@@ -2751,10 +2760,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>43</v>
@@ -2774,7 +2783,7 @@
       <c r="J48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="O48" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AL48" s="2" t="s">
@@ -2786,10 +2795,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>44</v>
@@ -2809,7 +2818,7 @@
       <c r="J49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AL49" s="2" t="s">
@@ -2821,10 +2830,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>43</v>
@@ -2843,6 +2852,9 @@
       </c>
       <c r="J50" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,10 +2862,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>44</v>
@@ -2872,6 +2884,9 @@
       </c>
       <c r="J51" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2879,10 +2894,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>43</v>
@@ -2901,6 +2916,9 @@
       </c>
       <c r="J52" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,10 +2926,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>44</v>
@@ -2930,6 +2948,9 @@
       </c>
       <c r="J53" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,10 +2958,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>43</v>
@@ -2959,6 +2980,9 @@
       </c>
       <c r="J54" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,10 +2990,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>44</v>
@@ -2988,6 +3012,9 @@
       </c>
       <c r="J55" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,10 +3022,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>43</v>
@@ -3017,6 +3044,9 @@
       </c>
       <c r="J56" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,10 +3054,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>44</v>
@@ -3046,6 +3076,9 @@
       </c>
       <c r="J57" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,10 +3086,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>43</v>
@@ -3075,6 +3108,9 @@
       </c>
       <c r="J58" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,10 +3118,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>44</v>
@@ -3104,6 +3140,9 @@
       </c>
       <c r="J59" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,10 +3150,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>43</v>
@@ -3133,6 +3172,9 @@
       </c>
       <c r="J60" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,10 +3182,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>44</v>
@@ -3162,6 +3204,9 @@
       </c>
       <c r="J61" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,10 +3214,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>43</v>
@@ -3191,6 +3236,9 @@
       </c>
       <c r="J62" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,10 +3246,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>44</v>
@@ -3220,6 +3268,9 @@
       </c>
       <c r="J63" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,10 +3278,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>43</v>
@@ -3249,6 +3300,9 @@
       </c>
       <c r="J64" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,10 +3310,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>44</v>
@@ -3278,6 +3332,9 @@
       </c>
       <c r="J65" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,10 +3342,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>43</v>
@@ -3307,6 +3364,9 @@
       </c>
       <c r="J66" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,10 +3374,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>44</v>
@@ -3336,6 +3396,9 @@
       </c>
       <c r="J67" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,10 +3406,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>43</v>
@@ -3365,6 +3428,9 @@
       </c>
       <c r="J68" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,10 +3438,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>44</v>
@@ -3394,6 +3460,9 @@
       </c>
       <c r="J69" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,10 +3470,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>43</v>
@@ -3423,6 +3492,9 @@
       </c>
       <c r="J70" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,10 +3502,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>44</v>
@@ -3452,6 +3524,9 @@
       </c>
       <c r="J71" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,10 +3534,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>43</v>
@@ -3481,6 +3556,9 @@
       </c>
       <c r="J72" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,10 +3566,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>44</v>
@@ -3510,6 +3588,9 @@
       </c>
       <c r="J73" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,10 +3598,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>43</v>
@@ -3539,6 +3620,9 @@
       </c>
       <c r="J74" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,10 +3630,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>44</v>
@@ -3568,6 +3652,9 @@
       </c>
       <c r="J75" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,10 +3662,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>43</v>
@@ -3597,6 +3684,9 @@
       </c>
       <c r="J76" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,10 +3694,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>44</v>
@@ -3626,6 +3716,9 @@
       </c>
       <c r="J77" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,10 +3726,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>43</v>
@@ -3655,6 +3748,9 @@
       </c>
       <c r="J78" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,10 +3758,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>44</v>
@@ -3684,6 +3780,9 @@
       </c>
       <c r="J79" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,10 +3790,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>43</v>
@@ -3713,6 +3812,9 @@
       </c>
       <c r="J80" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,10 +3822,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>44</v>
@@ -3742,6 +3844,9 @@
       </c>
       <c r="J81" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,10 +3854,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>43</v>
@@ -3771,6 +3876,9 @@
       </c>
       <c r="J82" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3778,10 +3886,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>44</v>
@@ -3800,6 +3908,9 @@
       </c>
       <c r="J83" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,10 +3918,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>43</v>
@@ -3829,6 +3940,9 @@
       </c>
       <c r="J84" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3836,10 +3950,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>44</v>
@@ -3858,6 +3972,9 @@
       </c>
       <c r="J85" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,10 +3982,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>43</v>
@@ -3887,6 +4004,9 @@
       </c>
       <c r="J86" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,10 +4014,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>44</v>
@@ -3916,6 +4036,9 @@
       </c>
       <c r="J87" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,10 +4046,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>43</v>
@@ -3945,6 +4068,9 @@
       </c>
       <c r="J88" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,7 +4081,7 @@
         <v>139</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>44</v>
@@ -3974,6 +4100,9 @@
       </c>
       <c r="J89" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,7 +4113,7 @@
         <v>140</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>43</v>
@@ -4003,6 +4132,9 @@
       </c>
       <c r="J90" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,7 +4145,7 @@
         <v>141</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>44</v>
@@ -4032,6 +4164,9 @@
       </c>
       <c r="J91" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4042,7 +4177,7 @@
         <v>142</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>43</v>
@@ -4061,6 +4196,9 @@
       </c>
       <c r="J92" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4071,7 +4209,7 @@
         <v>143</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>44</v>
@@ -4090,6 +4228,9 @@
       </c>
       <c r="J93" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,7 +4241,7 @@
         <v>144</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>43</v>
@@ -4119,6 +4260,9 @@
       </c>
       <c r="J94" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4129,7 +4273,7 @@
         <v>145</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>44</v>
@@ -4148,6 +4292,9 @@
       </c>
       <c r="J95" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,7 +4305,7 @@
         <v>146</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>43</v>
@@ -4177,6 +4324,9 @@
       </c>
       <c r="J96" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,7 +4337,7 @@
         <v>147</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>44</v>
@@ -4206,6 +4356,9 @@
       </c>
       <c r="J97" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,7 +4369,7 @@
         <v>148</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>43</v>
@@ -4235,6 +4388,9 @@
       </c>
       <c r="J98" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,7 +4401,7 @@
         <v>149</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>44</v>
@@ -4264,6 +4420,9 @@
       </c>
       <c r="J99" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,7 +4433,7 @@
         <v>150</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>43</v>
@@ -4293,6 +4452,9 @@
       </c>
       <c r="J100" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4303,7 +4465,7 @@
         <v>151</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>44</v>
@@ -4322,6 +4484,9 @@
       </c>
       <c r="J101" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,7 +4497,7 @@
         <v>152</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>43</v>
@@ -4351,6 +4516,9 @@
       </c>
       <c r="J102" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="U102" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4361,7 +4529,7 @@
         <v>153</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>44</v>
@@ -4380,6 +4548,9 @@
       </c>
       <c r="J103" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,7 +4561,7 @@
         <v>154</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>43</v>
@@ -4409,6 +4580,9 @@
       </c>
       <c r="J104" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,7 +4593,7 @@
         <v>155</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>44</v>
@@ -4438,6 +4612,9 @@
       </c>
       <c r="J105" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="U105" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,7 +4625,7 @@
         <v>156</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>43</v>
@@ -4467,6 +4644,9 @@
       </c>
       <c r="J106" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="U106" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4477,7 +4657,7 @@
         <v>157</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>44</v>
@@ -4496,6 +4676,9 @@
       </c>
       <c r="J107" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="U107" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,7 +4689,7 @@
         <v>158</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>43</v>
@@ -4525,6 +4708,9 @@
       </c>
       <c r="J108" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,7 +4721,7 @@
         <v>159</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>44</v>
@@ -4554,6 +4740,9 @@
       </c>
       <c r="J109" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="U109" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4564,7 +4753,7 @@
         <v>160</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>43</v>
@@ -4583,6 +4772,9 @@
       </c>
       <c r="J110" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="V110" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4593,7 +4785,7 @@
         <v>161</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>44</v>
@@ -4612,6 +4804,9 @@
       </c>
       <c r="J111" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="V111" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,7 +4817,7 @@
         <v>162</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>43</v>
@@ -4641,6 +4836,9 @@
       </c>
       <c r="J112" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="V112" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4651,7 +4849,7 @@
         <v>163</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>44</v>
@@ -4670,6 +4868,9 @@
       </c>
       <c r="J113" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="V113" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4881,7 @@
         <v>164</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>43</v>
@@ -4699,6 +4900,9 @@
       </c>
       <c r="J114" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="V114" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4709,7 +4913,7 @@
         <v>165</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>44</v>
@@ -4728,6 +4932,9 @@
       </c>
       <c r="J115" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="V115" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,7 +4945,7 @@
         <v>166</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>43</v>
@@ -4757,6 +4964,9 @@
       </c>
       <c r="J116" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="V116" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4767,7 +4977,7 @@
         <v>167</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>44</v>
@@ -4786,6 +4996,9 @@
       </c>
       <c r="J117" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="V117" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4796,7 +5009,7 @@
         <v>168</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>43</v>
@@ -4815,6 +5028,9 @@
       </c>
       <c r="J118" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="W118" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,7 +5041,7 @@
         <v>169</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>44</v>
@@ -4844,6 +5060,9 @@
       </c>
       <c r="J119" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="W119" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,7 +5073,7 @@
         <v>170</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>43</v>
@@ -4873,6 +5092,9 @@
       </c>
       <c r="J120" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="W120" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,7 +5105,7 @@
         <v>171</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>44</v>
@@ -4902,6 +5124,9 @@
       </c>
       <c r="J121" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="W121" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,7 +5137,7 @@
         <v>172</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>43</v>
@@ -4931,6 +5156,9 @@
       </c>
       <c r="J122" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="W122" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,7 +5169,7 @@
         <v>173</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>44</v>
@@ -4960,6 +5188,9 @@
       </c>
       <c r="J123" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="W123" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4970,7 +5201,7 @@
         <v>174</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>43</v>
@@ -4989,6 +5220,9 @@
       </c>
       <c r="J124" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="W124" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4999,7 +5233,7 @@
         <v>175</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>44</v>
@@ -5018,6 +5252,9 @@
       </c>
       <c r="J125" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="W125" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5028,7 +5265,7 @@
         <v>176</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>43</v>
@@ -5047,6 +5284,9 @@
       </c>
       <c r="J126" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="X126" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,7 +5297,7 @@
         <v>177</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>44</v>
@@ -5076,6 +5316,9 @@
       </c>
       <c r="J127" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="Y127" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5086,7 +5329,7 @@
         <v>178</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>43</v>
@@ -5105,6 +5348,9 @@
       </c>
       <c r="J128" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="Z128" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,7 +5361,7 @@
         <v>179</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>44</v>
@@ -5134,6 +5380,9 @@
       </c>
       <c r="J129" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="AA129" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,7 +5449,7 @@
   <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="E130:E131 Q2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5311,7 +5560,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>55</v>
@@ -5320,7 +5569,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>55</v>
@@ -5329,7 +5578,7 @@
         <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="7" t="n">
         <v>55</v>
@@ -5338,7 +5587,7 @@
         <v>44</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="7" t="n">
         <v>55</v>
@@ -5393,7 +5642,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>45</v>
@@ -5402,7 +5651,7 @@
         <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>45</v>
@@ -5411,7 +5660,7 @@
         <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" s="7" t="n">
         <v>45</v>
@@ -5420,7 +5669,7 @@
         <v>44</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7" t="n">
         <v>45</v>
@@ -5475,7 +5724,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>35</v>
@@ -5484,7 +5733,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>35</v>
@@ -5493,7 +5742,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7" t="n">
         <v>35</v>
@@ -5502,7 +5751,7 @@
         <v>44</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="n">
         <v>35</v>
@@ -5557,7 +5806,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>25</v>
@@ -5566,7 +5815,7 @@
         <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7" t="n">
         <v>25</v>
@@ -5575,7 +5824,7 @@
         <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7" t="n">
         <v>25</v>
@@ -5584,7 +5833,7 @@
         <v>44</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="n">
         <v>25</v>
@@ -5639,7 +5888,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>15</v>
@@ -5648,7 +5897,7 @@
         <v>44</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>15</v>
@@ -5657,7 +5906,7 @@
         <v>44</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7" t="n">
         <v>15</v>
@@ -5666,7 +5915,7 @@
         <v>44</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="7" t="n">
         <v>15</v>
@@ -5724,7 +5973,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>5</v>
@@ -5733,7 +5982,7 @@
         <v>44</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>5</v>
@@ -5742,7 +5991,7 @@
         <v>44</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M13" s="7" t="n">
         <v>5</v>
@@ -5751,7 +6000,7 @@
         <v>44</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="n">
         <v>5</v>
@@ -8255,7 +8504,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="E130:E131 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dLiveChannelListTesting.xlsx
+++ b/dLiveChannelListTesting.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="207">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -237,208 +237,208 @@
     <t xml:space="preserve">TST025</t>
   </si>
   <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST037</t>
+  </si>
+  <si>
     <t xml:space="preserve">green</t>
   </si>
   <si>
-    <t xml:space="preserve">TST026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST037</t>
+    <t xml:space="preserve">TST038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST049</t>
   </si>
   <si>
     <t xml:space="preserve">light blue</t>
   </si>
   <si>
-    <t xml:space="preserve">TST038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST049</t>
+    <t xml:space="preserve">TST050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST061</t>
   </si>
   <si>
     <t xml:space="preserve">white</t>
   </si>
   <si>
-    <t xml:space="preserve">TST050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST061</t>
+    <t xml:space="preserve">TST062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST073</t>
   </si>
   <si>
     <t xml:space="preserve">purple</t>
   </si>
   <si>
-    <t xml:space="preserve">TST062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST073</t>
+    <t xml:space="preserve">TST074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST085</t>
   </si>
   <si>
     <t xml:space="preserve">black</t>
   </si>
   <si>
-    <t xml:space="preserve">TST074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST085</t>
-  </si>
-  <si>
     <t xml:space="preserve">TST086</t>
   </si>
   <si>
     <t xml:space="preserve">TST087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow</t>
   </si>
   <si>
     <t xml:space="preserve">TST088</t>
@@ -943,22 +943,22 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E59" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T71" activeCellId="0" sqref="T71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W121" activeCellId="0" sqref="W121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="12" style="2" width="4.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="37" style="2" width="4.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="13" style="2" width="4.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="38" style="2" width="4.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -968,125 +968,125 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="0"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="X1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="XFC1" s="1"/>
       <c r="XFD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,40 +1096,43 @@
       <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL2" s="7"/>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -1138,40 +1141,43 @@
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL3" s="7"/>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -1180,40 +1186,43 @@
       <c r="B4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL4" s="7"/>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -1222,40 +1231,43 @@
       <c r="B5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="n">
         <v>-5</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL5" s="7"/>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -1264,40 +1276,43 @@
       <c r="B6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7" t="n">
         <v>-10</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL6" s="7"/>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -1306,40 +1321,43 @@
       <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL7" s="7"/>
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
       <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -1348,40 +1366,43 @@
       <c r="B8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="n">
         <v>-20</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL8" s="7"/>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -1390,40 +1411,43 @@
       <c r="B9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="n">
         <v>-25</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL9" s="7"/>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL9" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -1432,31 +1456,34 @@
       <c r="B10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1467,31 +1494,34 @@
       <c r="B11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="n">
         <v>-35</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1502,31 +1532,34 @@
       <c r="B12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="7" t="n">
         <v>-40</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL12" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1537,31 +1570,34 @@
       <c r="B13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="n">
         <v>-45</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK13" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL13" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1572,31 +1608,31 @@
       <c r="B14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="n">
         <v>-99</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1607,31 +1643,31 @@
       <c r="B15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK15" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM15" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1642,31 +1678,31 @@
       <c r="B16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1677,31 +1713,31 @@
       <c r="B17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK17" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1712,31 +1748,31 @@
       <c r="B18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="7" t="n">
         <v>-5</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK18" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1747,31 +1783,31 @@
       <c r="B19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="n">
         <v>-10</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK19" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM19" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1782,31 +1818,31 @@
       <c r="B20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK20" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM20" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1817,31 +1853,31 @@
       <c r="B21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="7" t="n">
         <v>-20</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM21" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1852,31 +1888,31 @@
       <c r="B22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="7" t="n">
         <v>-25</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK22" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM22" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1887,31 +1923,31 @@
       <c r="B23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK23" s="2" t="s">
+      <c r="G23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1922,31 +1958,31 @@
       <c r="B24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="7" t="n">
         <v>-35</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM24" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1957,31 +1993,31 @@
       <c r="B25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="7" t="n">
         <v>-40</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK25" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM25" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1992,31 +2028,31 @@
       <c r="B26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="7" t="n">
         <v>-45</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK26" s="2" t="s">
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2027,31 +2063,31 @@
       <c r="B27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="7" t="n">
         <v>-99</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK27" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN27" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2062,31 +2098,31 @@
       <c r="B28" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK28" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN28" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2097,31 +2133,31 @@
       <c r="B29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK29" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN29" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2132,31 +2168,31 @@
       <c r="B30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK30" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN30" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2167,31 +2203,31 @@
       <c r="B31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="7" t="n">
         <v>-5</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK31" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN31" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2202,31 +2238,31 @@
       <c r="B32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="7" t="n">
         <v>-10</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK32" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN32" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2237,31 +2273,31 @@
       <c r="B33" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK33" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN33" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2272,31 +2308,31 @@
       <c r="B34" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="7" t="n">
         <v>-20</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK34" s="2" t="s">
+      <c r="G34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN34" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2307,31 +2343,31 @@
       <c r="B35" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="7" t="n">
         <v>-25</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK35" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN35" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2342,31 +2378,31 @@
       <c r="B36" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK36" s="2" t="s">
+      <c r="G36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN36" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2377,31 +2413,31 @@
       <c r="B37" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="7" t="n">
         <v>-35</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK37" s="2" t="s">
+      <c r="G37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN37" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2412,31 +2448,31 @@
       <c r="B38" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="7" t="n">
         <v>-40</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK38" s="2" t="s">
+      <c r="G38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO38" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2447,31 +2483,31 @@
       <c r="B39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="7" t="n">
         <v>-45</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK39" s="2" t="s">
+      <c r="G39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO39" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2482,31 +2518,31 @@
       <c r="B40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="7" t="n">
         <v>-99</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK40" s="2" t="s">
+      <c r="G40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO40" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2517,31 +2553,31 @@
       <c r="B41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK41" s="2" t="s">
+      <c r="G41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO41" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2552,31 +2588,31 @@
       <c r="B42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO42" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2587,31 +2623,31 @@
       <c r="B43" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL43" s="2" t="s">
+      <c r="G43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO43" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2622,31 +2658,31 @@
       <c r="B44" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="7" t="n">
         <v>-5</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL44" s="2" t="s">
+      <c r="G44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO44" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2657,31 +2693,31 @@
       <c r="B45" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="7" t="n">
         <v>-10</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL45" s="2" t="s">
+      <c r="G45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO45" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2692,31 +2728,31 @@
       <c r="B46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="7" t="n">
+      <c r="E46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL46" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2727,31 +2763,31 @@
       <c r="B47" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="7" t="n">
+      <c r="E47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="7" t="n">
         <v>-20</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL47" s="2" t="s">
+      <c r="G47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO47" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2762,31 +2798,31 @@
       <c r="B48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="7" t="n">
+      <c r="E48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="7" t="n">
         <v>-25</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL48" s="2" t="s">
+      <c r="G48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO48" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2797,31 +2833,31 @@
       <c r="B49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="7" t="n">
+      <c r="E49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL49" s="2" t="s">
+      <c r="G49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO49" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2832,28 +2868,31 @@
       <c r="B50" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="7" t="n">
+      <c r="E50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="7" t="n">
         <v>-35</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P50" s="2" t="s">
+      <c r="G50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP50" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2864,28 +2903,31 @@
       <c r="B51" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="7" t="n">
+      <c r="E51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="7" t="n">
         <v>-40</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P51" s="2" t="s">
+      <c r="G51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP51" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2896,28 +2938,31 @@
       <c r="B52" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="7" t="n">
+      <c r="E52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="7" t="n">
         <v>-45</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P52" s="2" t="s">
+      <c r="G52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP52" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2928,28 +2973,31 @@
       <c r="B53" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="7" t="n">
+      <c r="E53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="7" t="n">
         <v>-99</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P53" s="2" t="s">
+      <c r="G53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP53" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2960,28 +3008,31 @@
       <c r="B54" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="7" t="n">
+      <c r="E54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P54" s="2" t="s">
+      <c r="G54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP54" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2992,28 +3043,31 @@
       <c r="B55" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P55" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP55" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3024,28 +3078,31 @@
       <c r="B56" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="7" t="n">
+      <c r="E56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P56" s="2" t="s">
+      <c r="G56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP56" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3056,28 +3113,31 @@
       <c r="B57" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="7" t="n">
+      <c r="E57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="7" t="n">
         <v>-5</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P57" s="2" t="s">
+      <c r="G57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP57" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3088,28 +3148,31 @@
       <c r="B58" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="7" t="n">
+      <c r="E58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="7" t="n">
         <v>-10</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P58" s="2" t="s">
+      <c r="G58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP58" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3120,28 +3183,31 @@
       <c r="B59" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="7" t="n">
+      <c r="E59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P59" s="2" t="s">
+      <c r="G59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP59" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3152,28 +3218,31 @@
       <c r="B60" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="7" t="n">
+      <c r="E60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="7" t="n">
         <v>-20</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P60" s="2" t="s">
+      <c r="G60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP60" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3184,28 +3253,31 @@
       <c r="B61" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="7" t="n">
+      <c r="E61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="7" t="n">
         <v>-25</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P61" s="2" t="s">
+      <c r="G61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP61" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3216,28 +3288,31 @@
       <c r="B62" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="7" t="n">
+      <c r="E62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q62" s="2" t="s">
+      <c r="G62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ62" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3248,28 +3323,31 @@
       <c r="B63" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="7" t="n">
+      <c r="E63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="7" t="n">
         <v>-35</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q63" s="2" t="s">
+      <c r="G63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ63" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3280,28 +3358,31 @@
       <c r="B64" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="7" t="n">
+      <c r="E64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="7" t="n">
         <v>-40</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G64" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q64" s="2" t="s">
+      <c r="G64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ64" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3312,28 +3393,31 @@
       <c r="B65" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="7" t="n">
+      <c r="E65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="7" t="n">
         <v>-45</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q65" s="2" t="s">
+      <c r="G65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ65" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3344,28 +3428,31 @@
       <c r="B66" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E66" s="7" t="n">
+      <c r="E66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="7" t="n">
         <v>-99</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q66" s="2" t="s">
+      <c r="G66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ66" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3376,28 +3463,31 @@
       <c r="B67" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="D67" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="7" t="n">
+      <c r="E67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q67" s="2" t="s">
+      <c r="G67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ67" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3408,60 +3498,66 @@
       <c r="B68" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G68" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ68" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" s="7" t="n">
+      <c r="E69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q69" s="2" t="s">
+      <c r="G69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ69" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3472,28 +3568,31 @@
       <c r="B70" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="7" t="n">
+      <c r="E70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="7" t="n">
         <v>-5</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q70" s="2" t="s">
+      <c r="G70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ70" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3504,28 +3603,31 @@
       <c r="B71" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" s="7" t="n">
+      <c r="E71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="7" t="n">
         <v>-10</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q71" s="2" t="s">
+      <c r="G71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ71" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3536,60 +3638,66 @@
       <c r="B72" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" s="7" t="n">
+      <c r="E72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ72" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="7" t="n">
+      <c r="E73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="7" t="n">
         <v>-20</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G73" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q73" s="2" t="s">
+      <c r="G73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ73" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3600,28 +3708,31 @@
       <c r="B74" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="7" t="n">
+      <c r="E74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="7" t="n">
         <v>-25</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R74" s="2" t="s">
+      <c r="G74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR74" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3632,28 +3743,31 @@
       <c r="B75" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="7" t="n">
+      <c r="E75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G75" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R75" s="2" t="s">
+      <c r="G75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR75" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3664,28 +3778,31 @@
       <c r="B76" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="D76" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="7" t="n">
+      <c r="E76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="7" t="n">
         <v>-35</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R76" s="2" t="s">
+      <c r="G76" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR76" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3696,28 +3813,31 @@
       <c r="B77" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="D77" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="7" t="n">
+      <c r="E77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="7" t="n">
         <v>-40</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G77" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R77" s="2" t="s">
+      <c r="G77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR77" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3728,28 +3848,31 @@
       <c r="B78" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="D78" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E78" s="7" t="n">
+      <c r="E78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="7" t="n">
         <v>-45</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R78" s="2" t="s">
+      <c r="G78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR78" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3760,28 +3883,31 @@
       <c r="B79" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="D79" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="7" t="n">
+      <c r="E79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" s="7" t="n">
         <v>-99</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R79" s="2" t="s">
+      <c r="G79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR79" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3792,28 +3918,31 @@
       <c r="B80" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="D80" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" s="7" t="n">
+      <c r="E80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G80" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R80" s="2" t="s">
+      <c r="G80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR80" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3824,28 +3953,31 @@
       <c r="B81" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G81" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R81" s="2" t="s">
+      <c r="E81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR81" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3856,28 +3988,31 @@
       <c r="B82" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="D82" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="7" t="n">
+      <c r="E82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R82" s="2" t="s">
+      <c r="G82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR82" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3888,28 +4023,31 @@
       <c r="B83" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="D83" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="7" t="n">
+      <c r="E83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" s="7" t="n">
         <v>-5</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G83" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R83" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR83" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3920,28 +4058,31 @@
       <c r="B84" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E84" s="7" t="n">
+      <c r="E84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="7" t="n">
         <v>-10</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R84" s="2" t="s">
+      <c r="G84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR84" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3952,28 +4093,31 @@
       <c r="B85" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="D85" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E85" s="7" t="n">
+      <c r="E85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G85" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R85" s="2" t="s">
+      <c r="G85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR85" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3984,28 +4128,31 @@
       <c r="B86" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="7" t="n">
+      <c r="D86" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="7" t="n">
         <v>-20</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G86" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S86" s="2" t="s">
+      <c r="G86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS86" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4014,30 +4161,33 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E87" s="7" t="n">
+      <c r="E87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" s="7" t="n">
         <v>-25</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G87" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S87" s="2" t="s">
+      <c r="G87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS87" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4046,30 +4196,33 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="7" t="n">
+      <c r="D88" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S88" s="2" t="s">
+      <c r="G88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS88" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4080,28 +4233,31 @@
       <c r="B89" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E89" s="7" t="n">
+      <c r="D89" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="7" t="n">
         <v>-35</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G89" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S89" s="2" t="s">
+      <c r="G89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS89" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4112,28 +4268,31 @@
       <c r="B90" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E90" s="7" t="n">
+      <c r="D90" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" s="7" t="n">
         <v>-40</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G90" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S90" s="2" t="s">
+      <c r="G90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS90" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4144,28 +4303,31 @@
       <c r="B91" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" s="7" t="n">
+      <c r="D91" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" s="7" t="n">
         <v>-45</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G91" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S91" s="2" t="s">
+      <c r="G91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS91" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4176,28 +4338,31 @@
       <c r="B92" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" s="7" t="n">
+      <c r="D92" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" s="7" t="n">
         <v>-99</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G92" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S92" s="2" t="s">
+      <c r="G92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS92" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4208,28 +4373,31 @@
       <c r="B93" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" s="7" t="n">
+      <c r="D93" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G93" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S93" s="2" t="s">
+      <c r="G93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS93" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4240,28 +4408,31 @@
       <c r="B94" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G94" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J94" s="2" t="s">
+      <c r="D94" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T94" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS94" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4272,28 +4443,31 @@
       <c r="B95" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E95" s="7" t="n">
+      <c r="D95" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G95" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J95" s="2" t="s">
+      <c r="G95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K95" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T95" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS95" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4304,28 +4478,31 @@
       <c r="B96" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E96" s="7" t="n">
+      <c r="D96" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="7" t="n">
         <v>-5</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G96" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J96" s="2" t="s">
+      <c r="G96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS96" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4336,28 +4513,31 @@
       <c r="B97" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E97" s="7" t="n">
+      <c r="D97" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" s="7" t="n">
         <v>-10</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G97" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J97" s="2" t="s">
+      <c r="G97" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T97" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS97" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4368,28 +4548,28 @@
       <c r="B98" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E98" s="7" t="n">
+      <c r="D98" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G98" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T98" s="2" t="s">
+      <c r="G98" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U98" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4400,28 +4580,28 @@
       <c r="B99" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="7" t="n">
+      <c r="D99" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" s="7" t="n">
         <v>-20</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G99" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T99" s="2" t="s">
+      <c r="G99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U99" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4432,28 +4612,28 @@
       <c r="B100" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="7" t="n">
+      <c r="D100" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="7" t="n">
         <v>-25</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G100" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T100" s="2" t="s">
+      <c r="G100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U100" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4464,28 +4644,28 @@
       <c r="B101" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" s="7" t="n">
+      <c r="D101" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G101" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T101" s="2" t="s">
+      <c r="G101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U101" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4496,25 +4676,25 @@
       <c r="B102" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E102" s="7" t="n">
+      <c r="D102" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" s="7" t="n">
         <v>-35</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G102" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J102" s="2" t="s">
+      <c r="G102" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>43</v>
       </c>
       <c r="U102" s="2" t="s">
@@ -4528,25 +4708,25 @@
       <c r="B103" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="7" t="n">
+      <c r="D103" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" s="7" t="n">
         <v>-40</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G103" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J103" s="2" t="s">
+      <c r="G103" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U103" s="2" t="s">
@@ -4560,25 +4740,25 @@
       <c r="B104" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E104" s="7" t="n">
+      <c r="D104" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="7" t="n">
         <v>-45</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G104" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J104" s="2" t="s">
+      <c r="G104" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>43</v>
       </c>
       <c r="U104" s="2" t="s">
@@ -4592,25 +4772,25 @@
       <c r="B105" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C105" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E105" s="7" t="n">
+      <c r="D105" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" s="7" t="n">
         <v>-99</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G105" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J105" s="2" t="s">
+      <c r="G105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U105" s="2" t="s">
@@ -4624,28 +4804,28 @@
       <c r="B106" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E106" s="7" t="n">
+      <c r="D106" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G106" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U106" s="2" t="s">
+      <c r="G106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V106" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4656,28 +4836,28 @@
       <c r="B107" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G107" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U107" s="2" t="s">
+      <c r="D107" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V107" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4688,28 +4868,28 @@
       <c r="B108" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E108" s="7" t="n">
+      <c r="D108" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G108" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U108" s="2" t="s">
+      <c r="G108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V108" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4720,28 +4900,28 @@
       <c r="B109" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E109" s="7" t="n">
+      <c r="D109" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" s="7" t="n">
         <v>-5</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G109" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U109" s="2" t="s">
+      <c r="G109" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V109" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4752,25 +4932,25 @@
       <c r="B110" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E110" s="7" t="n">
+      <c r="D110" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" s="7" t="n">
         <v>-10</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G110" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J110" s="2" t="s">
+      <c r="G110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>43</v>
       </c>
       <c r="V110" s="2" t="s">
@@ -4784,25 +4964,25 @@
       <c r="B111" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E111" s="7" t="n">
+      <c r="D111" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G111" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J111" s="2" t="s">
+      <c r="G111" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V111" s="2" t="s">
@@ -4816,25 +4996,25 @@
       <c r="B112" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E112" s="7" t="n">
+      <c r="D112" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="7" t="n">
         <v>-20</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G112" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J112" s="2" t="s">
+      <c r="G112" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>43</v>
       </c>
       <c r="V112" s="2" t="s">
@@ -4848,25 +5028,25 @@
       <c r="B113" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E113" s="7" t="n">
+      <c r="D113" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" s="7" t="n">
         <v>-25</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G113" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J113" s="2" t="s">
+      <c r="G113" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V113" s="2" t="s">
@@ -4880,28 +5060,28 @@
       <c r="B114" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E114" s="7" t="n">
+      <c r="D114" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G114" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V114" s="2" t="s">
+      <c r="G114" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W114" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4912,28 +5092,28 @@
       <c r="B115" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E115" s="7" t="n">
+      <c r="D115" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" s="7" t="n">
         <v>-35</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G115" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V115" s="2" t="s">
+      <c r="G115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W115" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4944,28 +5124,28 @@
       <c r="B116" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E116" s="7" t="n">
+      <c r="D116" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" s="7" t="n">
         <v>-40</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G116" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V116" s="2" t="s">
+      <c r="G116" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W116" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4976,28 +5156,28 @@
       <c r="B117" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E117" s="7" t="n">
+      <c r="D117" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" s="7" t="n">
         <v>-45</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G117" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V117" s="2" t="s">
+      <c r="G117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W117" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5008,25 +5188,25 @@
       <c r="B118" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E118" s="7" t="n">
+      <c r="D118" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F118" s="7" t="n">
         <v>-99</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G118" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J118" s="2" t="s">
+      <c r="G118" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K118" s="2" t="s">
         <v>43</v>
       </c>
       <c r="W118" s="2" t="s">
@@ -5040,25 +5220,25 @@
       <c r="B119" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E119" s="7" t="n">
+      <c r="D119" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G119" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J119" s="2" t="s">
+      <c r="G119" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K119" s="2" t="s">
         <v>44</v>
       </c>
       <c r="W119" s="2" t="s">
@@ -5072,25 +5252,25 @@
       <c r="B120" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E120" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G120" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J120" s="2" t="s">
+      <c r="D120" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K120" s="2" t="s">
         <v>43</v>
       </c>
       <c r="W120" s="2" t="s">
@@ -5104,25 +5284,25 @@
       <c r="B121" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E121" s="7" t="n">
+      <c r="D121" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G121" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J121" s="2" t="s">
+      <c r="G121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K121" s="2" t="s">
         <v>44</v>
       </c>
       <c r="W121" s="2" t="s">
@@ -5136,28 +5316,28 @@
       <c r="B122" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E122" s="7" t="n">
+      <c r="D122" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F122" s="7" t="n">
         <v>-5</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G122" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W122" s="2" t="s">
+      <c r="G122" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X122" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5168,28 +5348,28 @@
       <c r="B123" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E123" s="7" t="n">
+      <c r="D123" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" s="7" t="n">
         <v>-10</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G123" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W123" s="2" t="s">
+      <c r="G123" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X123" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5200,28 +5380,28 @@
       <c r="B124" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124" s="7" t="n">
+      <c r="D124" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G124" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W124" s="2" t="s">
+      <c r="G124" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X124" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5232,28 +5412,28 @@
       <c r="B125" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E125" s="7" t="n">
+      <c r="D125" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" s="7" t="n">
         <v>-20</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G125" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W125" s="2" t="s">
+      <c r="G125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X125" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5264,25 +5444,25 @@
       <c r="B126" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E126" s="7" t="n">
+      <c r="D126" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="7" t="n">
         <v>-25</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G126" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J126" s="2" t="s">
+      <c r="G126" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K126" s="2" t="s">
         <v>43</v>
       </c>
       <c r="X126" s="2" t="s">
@@ -5296,28 +5476,28 @@
       <c r="B127" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E127" s="7" t="n">
+      <c r="D127" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F127" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G127" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y127" s="2" t="s">
+      <c r="G127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X127" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5328,28 +5508,28 @@
       <c r="B128" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="D128" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E128" s="7" t="n">
+      <c r="E128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" s="7" t="n">
         <v>-35</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G128" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z128" s="2" t="s">
+      <c r="G128" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X128" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5360,41 +5540,41 @@
       <c r="B129" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E129" s="7" t="n">
+      <c r="D129" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" s="7" t="n">
         <v>-40</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G129" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA129" s="2" t="s">
+      <c r="G129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X129" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
-      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
-      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576 C1:C1048576">
+  <conditionalFormatting sqref="K1:K1048576 E1:E1048576 D98:D129">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"purple"</formula>
     </cfRule>
@@ -5418,15 +5598,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C129" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D129" type="list">
       <formula1>"blue,red,yellow,green,light blue,white,purple,black"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G129" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:H129" type="decimal">
       <formula1>20</formula1>
       <formula2>2000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E131" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F131" type="list">
       <formula1>"+10,+5,0,-5,-10,-15,-20,-25,-30,-35,-40,-45,-99"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/dLiveChannelListTesting.xlsx
+++ b/dLiveChannelListTesting.xlsx
@@ -943,8 +943,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W121" activeCellId="0" sqref="W121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D97" activeCellId="0" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -968,7 +968,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="F131" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1048576 E1:E1048576 D98:D129">
+  <conditionalFormatting sqref="K1:K1048576 E1:E1048576 D2:D129">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"purple"</formula>
     </cfRule>
